--- a/13040-WMS-EIW_for_THC.xlsx
+++ b/13040-WMS-EIW_for_THC.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuang4\Dropbox\NOW\THC EIW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuang4\git\EIW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_63C189B6945C22318603EC541430623DC0C5CC83" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF73C2EC-41D9-48FD-816C-90EFD1E51BD1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ACB107-C7AD-4130-BD50-123DE5B8C7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="647" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LookupValTables" sheetId="29" r:id="rId1"/>
+    <sheet name="LookupValTables" sheetId="29" state="hidden" r:id="rId1"/>
     <sheet name="Project Information" sheetId="53" r:id="rId2"/>
     <sheet name="Assets" sheetId="20" r:id="rId3"/>
     <sheet name="OEM Maintenance" sheetId="38" r:id="rId4"/>
@@ -4541,7 +4541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="64">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6256,7 +6256,7 @@
     <xf numFmtId="2" fontId="57" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6308,6 +6308,38 @@
   </cellStyles>
   <dxfs count="238">
     <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6367,7 +6399,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+      <numFmt numFmtId="19" formatCode="mm/dd/yyyy"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6451,13 +6483,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
@@ -6475,6 +6500,13 @@
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -9569,13 +9601,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -9602,6 +9627,13 @@
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -9639,39 +9671,7 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+      <numFmt numFmtId="19" formatCode="mm/dd/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -9830,13 +9830,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="1"/>
         </left>
@@ -9874,6 +9867,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -11457,183 +11457,183 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="AssetInfo" displayName="AssetInfo" ref="A13:EZ14" insertRow="1" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188" headerRowBorderDxfId="186" tableBorderDxfId="187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="AssetInfo" displayName="AssetInfo" ref="A13:EZ14" insertRow="1" totalsRowShown="0" headerRowDxfId="192" dataDxfId="190" headerRowBorderDxfId="191" tableBorderDxfId="189">
   <autoFilter ref="A13:EZ14" xr:uid="{00000000-0009-0000-0100-000029000000}"/>
   <tableColumns count="156">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Change to Physical Asset" dataDxfId="185"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Final Entity Number" dataDxfId="184"/>
-    <tableColumn id="151" xr3:uid="{00000000-0010-0000-0A00-000097000000}" name="Original Entity Number in WMS" dataDxfId="183"/>
-    <tableColumn id="148" xr3:uid="{00000000-0010-0000-0A00-000094000000}" name="Final Parent Entity Number" dataDxfId="182"/>
-    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0A00-00009B000000}" name="Major Process Start-Up" dataDxfId="181"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Entity Name" dataDxfId="180"/>
-    <tableColumn id="156" xr3:uid="{00000000-0010-0000-0A00-00009C000000}" name="Comment Number(s)" dataDxfId="179"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0A00-000021000000}" name="Blank by intention" dataDxfId="178"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Entity Site Name" dataDxfId="177"/>
-    <tableColumn id="149" xr3:uid="{00000000-0010-0000-0A00-000095000000}" name="Reviewer Discipline" dataDxfId="176"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Entity Type" dataDxfId="175"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Entity Classification" dataDxfId="174"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="Entity Category" dataDxfId="173"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Entity Location Description" dataDxfId="172"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="Drawing Number" dataDxfId="171"/>
-    <tableColumn id="154" xr3:uid="{00000000-0010-0000-0A00-00009A000000}" name="Number of PM Activities Specified" dataDxfId="170">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Change to Physical Asset" dataDxfId="188"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Final Entity Number" dataDxfId="187"/>
+    <tableColumn id="151" xr3:uid="{00000000-0010-0000-0A00-000097000000}" name="Original Entity Number in WMS" dataDxfId="186"/>
+    <tableColumn id="148" xr3:uid="{00000000-0010-0000-0A00-000094000000}" name="Final Parent Entity Number" dataDxfId="185"/>
+    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0A00-00009B000000}" name="Major Process Start-Up" dataDxfId="184"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Entity Name" dataDxfId="183"/>
+    <tableColumn id="156" xr3:uid="{00000000-0010-0000-0A00-00009C000000}" name="Comment Number(s)" dataDxfId="182"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0A00-000021000000}" name="Blank by intention" dataDxfId="181"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Entity Site Name" dataDxfId="180"/>
+    <tableColumn id="149" xr3:uid="{00000000-0010-0000-0A00-000095000000}" name="Reviewer Discipline" dataDxfId="179"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Entity Type" dataDxfId="178"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Entity Classification" dataDxfId="177"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="Entity Category" dataDxfId="176"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Entity Location Description" dataDxfId="175"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="Drawing Number" dataDxfId="174"/>
+    <tableColumn id="154" xr3:uid="{00000000-0010-0000-0A00-00009A000000}" name="Number of PM Activities Specified" dataDxfId="173">
       <calculatedColumnFormula>COUNTIF([2]!OEMmaintenance[Entity Numbers],"*"&amp;[2]!AssetInfo[[#This Row],[Final Entity Number]]&amp;"*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Blank by intention 2" dataDxfId="169"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0A00-000018000000}" name="OEM Business Name" dataDxfId="168"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0A00-000019000000}" name="Supplier (Complete Business Name)" dataDxfId="167"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0A00-00001A000000}" name="Supplier Phone Number" dataDxfId="166"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0A00-00001B000000}" name="Purchase Order/ Contract #" dataDxfId="165"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0A00-00001C000000}" name="Original Cost" dataDxfId="164"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0A00-00001D000000}" name="Model/Style/Catalog Number" dataDxfId="163"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0A00-00001E000000}" name="Serial Number" dataDxfId="162"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0A00-000022000000}" name="Pump?" dataDxfId="161"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0A00-000023000000}" name="Flow Rate (L/sec,USgpm,IMgpm)" dataDxfId="160"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0A00-000024000000}" name="Head (M, FT)_1" dataDxfId="159"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0A00-000025000000}" name="RPM" dataDxfId="158"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0A00-000026000000}" name="Suction Diameter (in, mm)_1" dataDxfId="157"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0A00-000027000000}" name="Discharge Diameter (in, mm)_1" dataDxfId="156"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0A00-000028000000}" name="Seal Type (Mech, Packing)" dataDxfId="155"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0A00-000029000000}" name="Number of Stages" dataDxfId="154"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0A00-00002A000000}" name="Lubrication (oil, grease)" dataDxfId="153"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0A00-00002B000000}" name="Impeller Diameter (in, mm)_1" dataDxfId="152"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0A00-00002C000000}" name="Impeller Sleeve Diameter_1" dataDxfId="151"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0A00-00002D000000}" name="Number of Impeller Vanes" dataDxfId="150"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0A00-00002E000000}" name="Impeller Material" dataDxfId="149"/>
-    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0A00-00002F000000}" name="Rotation (CW, CCW)" dataDxfId="148"/>
-    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0A00-000030000000}" name="Inboard Bearing Part # / Type" dataDxfId="147"/>
-    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0A00-000031000000}" name="Outboard Bearing Part # / Type" dataDxfId="146"/>
-    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0A00-000032000000}" name="Thrust Bearing Part # / Type" dataDxfId="145"/>
-    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0A00-000033000000}" name="Additional Nameplate Info" dataDxfId="144"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0A00-000034000000}" name="Drive (Direct, Belt or Gear Box)" dataDxfId="143"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0A00-000035000000}" name="Coupling Type and Size" dataDxfId="142"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0A00-000036000000}" name="Belt Type and Size" dataDxfId="141"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0A00-000037000000}" name="Motor?" dataDxfId="140"/>
-    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0A00-000038000000}" name="Motor Function" dataDxfId="139"/>
-    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0A00-000039000000}" name="Watts" dataDxfId="138"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0A00-00003A000000}" name="Horse Power" dataDxfId="137"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0A00-00003B000000}" name="RPM3" dataDxfId="136"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0A00-00003C000000}" name="AC or DC" dataDxfId="135"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0A00-00003D000000}" name="Number of Phases" dataDxfId="134"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0A00-00003E000000}" name="Cycles (Hz)" dataDxfId="133"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0A00-00003F000000}" name="Frame Size" dataDxfId="132"/>
-    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0A00-000040000000}" name="Frame Type (TEFC, DE,ODP)" dataDxfId="131"/>
-    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0A00-000041000000}" name="Amperage (A, mA)" dataDxfId="130"/>
-    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0A00-000042000000}" name="Voltage" dataDxfId="129"/>
-    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0A00-000043000000}" name="Abbreviation" dataDxfId="128"/>
-    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0A00-000044000000}" name="Insulation Class Code" dataDxfId="127"/>
-    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0A00-000045000000}" name="Inboard Bearing Part #" dataDxfId="126"/>
-    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0A00-000046000000}" name="Outboard Bearing Part #" dataDxfId="125"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0A00-000047000000}" name="Type (Ind, Synchr, Series, Shunt)" dataDxfId="124"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0A00-000048000000}" name="Mount, (Horizontal, Vertical)" dataDxfId="123"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0A00-000049000000}" name="Shaft (Single or Double Output)" dataDxfId="122"/>
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0A00-00004A000000}" name="Additional Nameplate Info4" dataDxfId="121"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0A00-00004C000000}" name="Valve?" dataDxfId="120"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0A00-00004D000000}" name="Process Application" dataDxfId="119"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0A00-00004E000000}" name="Valve Type" dataDxfId="118"/>
-    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0A00-00004F000000}" name="Connection Type" dataDxfId="117"/>
-    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0A00-000050000000}" name="Valve Size" dataDxfId="116"/>
-    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0A00-000051000000}" name="Body Type" dataDxfId="115"/>
-    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0A00-000052000000}" name="Pressure Rating" dataDxfId="114"/>
-    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0A00-000053000000}" name="Seat Material" dataDxfId="113"/>
-    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0A00-000054000000}" name="Packing Material/Size" dataDxfId="112"/>
-    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0A00-000055000000}" name="Interior Coated" dataDxfId="111"/>
-    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0A00-000056000000}" name="Number of Rotations" dataDxfId="110"/>
-    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0A00-000057000000}" name="Operator Manufacture" dataDxfId="109"/>
-    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0A00-000058000000}" name="Operator Type" dataDxfId="108"/>
-    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0A00-000059000000}" name="Operator Model Number" dataDxfId="107"/>
-    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0A00-00005A000000}" name="Operator Size" dataDxfId="106"/>
-    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0A00-00005B000000}" name="Operating Torque" dataDxfId="105"/>
-    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0A00-00005C000000}" name="Clockwise to Open" dataDxfId="104"/>
-    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0A00-00005D000000}" name="Additional Operator Info." dataDxfId="103"/>
-    <tableColumn id="94" xr3:uid="{00000000-0010-0000-0A00-00005E000000}" name="Actuator Name Plate Info" dataDxfId="102"/>
-    <tableColumn id="95" xr3:uid="{00000000-0010-0000-0A00-00005F000000}" name="Additional Valve Info." dataDxfId="101"/>
-    <tableColumn id="97" xr3:uid="{00000000-0010-0000-0A00-000061000000}" name="Instrumentation?" dataDxfId="100"/>
-    <tableColumn id="98" xr3:uid="{00000000-0010-0000-0A00-000062000000}" name="Supply" dataDxfId="99"/>
-    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0A00-000063000000}" name="Display" dataDxfId="98"/>
-    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0A00-000064000000}" name="Input" dataDxfId="97"/>
-    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0A00-000065000000}" name="Output" dataDxfId="96"/>
-    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0A00-000066000000}" name="Range" dataDxfId="95"/>
-    <tableColumn id="103" xr3:uid="{00000000-0010-0000-0A00-000067000000}" name="Calibration Range" dataDxfId="94"/>
-    <tableColumn id="104" xr3:uid="{00000000-0010-0000-0A00-000068000000}" name="Activation Parameter" dataDxfId="93"/>
-    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0A00-000069000000}" name="Pressure Rating2" dataDxfId="92"/>
-    <tableColumn id="106" xr3:uid="{00000000-0010-0000-0A00-00006A000000}" name="Breaker?" dataDxfId="91"/>
-    <tableColumn id="107" xr3:uid="{00000000-0010-0000-0A00-00006B000000}" name="Type" dataDxfId="90"/>
-    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0A00-00006C000000}" name="Insulation Medium" dataDxfId="89"/>
-    <tableColumn id="109" xr3:uid="{00000000-0010-0000-0A00-00006D000000}" name="Load Voltage" dataDxfId="88"/>
-    <tableColumn id="110" xr3:uid="{00000000-0010-0000-0A00-00006E000000}" name="Frame Size Amp." dataDxfId="87"/>
-    <tableColumn id="111" xr3:uid="{00000000-0010-0000-0A00-00006F000000}" name="Modular Trip Unit?" dataDxfId="86"/>
-    <tableColumn id="112" xr3:uid="{00000000-0010-0000-0A00-000070000000}" name="Trip Unit Type" dataDxfId="85"/>
-    <tableColumn id="113" xr3:uid="{00000000-0010-0000-0A00-000071000000}" name="Trip Unit Sensor Rating In" dataDxfId="84"/>
-    <tableColumn id="114" xr3:uid="{00000000-0010-0000-0A00-000072000000}" name="Trip Unit OEM Name" dataDxfId="83"/>
-    <tableColumn id="115" xr3:uid="{00000000-0010-0000-0A00-000073000000}" name="Trip Unit Model" dataDxfId="82"/>
-    <tableColumn id="116" xr3:uid="{00000000-0010-0000-0A00-000074000000}" name="Separate CT/PT?" dataDxfId="81"/>
-    <tableColumn id="117" xr3:uid="{00000000-0010-0000-0A00-000075000000}" name="Separate Protection Relay?" dataDxfId="80"/>
-    <tableColumn id="118" xr3:uid="{00000000-0010-0000-0A00-000076000000}" name="Starter?" dataDxfId="79"/>
-    <tableColumn id="119" xr3:uid="{00000000-0010-0000-0A00-000077000000}" name="Load Voltage3" dataDxfId="78"/>
-    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0A00-000078000000}" name="Load F.L.A." dataDxfId="77"/>
-    <tableColumn id="121" xr3:uid="{00000000-0010-0000-0A00-000079000000}" name="Number of Phases4" dataDxfId="76"/>
-    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0A00-00007A000000}" name="Starter - Configuration" dataDxfId="75"/>
-    <tableColumn id="123" xr3:uid="{00000000-0010-0000-0A00-00007B000000}" name="Starter - Starting method" dataDxfId="74"/>
-    <tableColumn id="124" xr3:uid="{00000000-0010-0000-0A00-00007C000000}" name="All Overload Element(s) Type(s)" dataDxfId="73"/>
-    <tableColumn id="125" xr3:uid="{00000000-0010-0000-0A00-00007D000000}" name="Respective Overload Element(s) Location(s)" dataDxfId="72"/>
-    <tableColumn id="126" xr3:uid="{00000000-0010-0000-0A00-00007E000000}" name="Starter Contactor - OEM and Model #" dataDxfId="71"/>
-    <tableColumn id="127" xr3:uid="{00000000-0010-0000-0A00-00007F000000}" name="Starter Contactor - Max Amps." dataDxfId="70"/>
-    <tableColumn id="128" xr3:uid="{00000000-0010-0000-0A00-000080000000}" name="Starter Contactor - Coil Voltage" dataDxfId="69"/>
-    <tableColumn id="129" xr3:uid="{00000000-0010-0000-0A00-000081000000}" name="Contact Insulation Medium (for MV)" dataDxfId="68"/>
-    <tableColumn id="130" xr3:uid="{00000000-0010-0000-0A00-000082000000}" name="Starter Control Transformer VA" dataDxfId="67"/>
-    <tableColumn id="131" xr3:uid="{00000000-0010-0000-0A00-000083000000}" name="Starter Control  Fuse - OEM and Catalog No." dataDxfId="66"/>
-    <tableColumn id="132" xr3:uid="{00000000-0010-0000-0A00-000084000000}" name="Main Fuse - OEM and Catalog No." dataDxfId="65"/>
-    <tableColumn id="133" xr3:uid="{00000000-0010-0000-0A00-000085000000}" name="μ-Processor Relay - OEM and Model No." dataDxfId="64"/>
-    <tableColumn id="134" xr3:uid="{00000000-0010-0000-0A00-000086000000}" name="Soft starter - OEM and Model No." dataDxfId="63"/>
-    <tableColumn id="135" xr3:uid="{00000000-0010-0000-0A00-000087000000}" name="Contractor" dataDxfId="62"/>
-    <tableColumn id="136" xr3:uid="{00000000-0010-0000-0A00-000088000000}" name="Transformer?" dataDxfId="61"/>
-    <tableColumn id="137" xr3:uid="{00000000-0010-0000-0A00-000089000000}" name="Primary Voltage (Centre Tap)" dataDxfId="60"/>
-    <tableColumn id="138" xr3:uid="{00000000-0010-0000-0A00-00008A000000}" name="Secondary Voltage" dataDxfId="59"/>
-    <tableColumn id="139" xr3:uid="{00000000-0010-0000-0A00-00008B000000}" name="kVA Rating (@ max cooling)" dataDxfId="58"/>
-    <tableColumn id="140" xr3:uid="{00000000-0010-0000-0A00-00008C000000}" name="Cooling Type" dataDxfId="57"/>
-    <tableColumn id="141" xr3:uid="{00000000-0010-0000-0A00-00008D000000}" name="Winding Configuration" dataDxfId="56"/>
-    <tableColumn id="142" xr3:uid="{00000000-0010-0000-0A00-00008E000000}" name="Oil Filled _x000a_/ Dry Type" dataDxfId="55"/>
-    <tableColumn id="143" xr3:uid="{00000000-0010-0000-0A00-00008F000000}" name="Oil Type" dataDxfId="54"/>
-    <tableColumn id="144" xr3:uid="{00000000-0010-0000-0A00-000090000000}" name="Sudden pressure relay installed?" dataDxfId="53"/>
-    <tableColumn id="145" xr3:uid="{00000000-0010-0000-0A00-000091000000}" name="Cable Teminal Type" dataDxfId="52"/>
-    <tableColumn id="146" xr3:uid="{00000000-0010-0000-0A00-000092000000}" name="NGR_x000a_Resistance" dataDxfId="51"/>
-    <tableColumn id="147" xr3:uid="{00000000-0010-0000-0A00-000093000000}" name="Online Gas Monitor Installed" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="HVAC?" dataDxfId="49"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="Type (Draw-Thru or Blow-Thru)" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="CFM Rating" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="Static Pressure Rating" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="Drive (Direct, Belt or Gear Box)2" dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="Pulley Dimensions - Motor" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0A00-000011000000}" name="Pulley Dimension - Fan" dataDxfId="43"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0A00-000012000000}" name="Belt Size and Quantity" dataDxfId="42"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0A00-000013000000}" name="Inboard Fan Bearing  #" dataDxfId="41"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0A00-000014000000}" name="Outboard Fan Bearing #" dataDxfId="40"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0A00-000015000000}" name="Coupling Type and Size3" dataDxfId="39"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0A00-000016000000}" name="Cooling Coil Description" dataDxfId="38"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0A00-000017000000}" name="Filter Type Description" dataDxfId="37"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0A00-00001F000000}" name="Filter Dimensions and #" dataDxfId="36"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0A00-000020000000}" name="Evaporator Style" dataDxfId="35"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0A00-00004B000000}" name="Evaporator Dimensions" dataDxfId="34"/>
-    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0A00-000060000000}" name="Humidification Info." dataDxfId="33"/>
-    <tableColumn id="150" xr3:uid="{00000000-0010-0000-0A00-000096000000}" name="Compressor Name Plate Info." dataDxfId="32"/>
-    <tableColumn id="152" xr3:uid="{00000000-0010-0000-0A00-000098000000}" name="Damper Info." dataDxfId="31"/>
-    <tableColumn id="153" xr3:uid="{00000000-0010-0000-0A00-000099000000}" name="Additional Information" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Blank by intention 2" dataDxfId="172"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0A00-000018000000}" name="OEM Business Name" dataDxfId="171"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0A00-000019000000}" name="Supplier (Complete Business Name)" dataDxfId="170"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0A00-00001A000000}" name="Supplier Phone Number" dataDxfId="169"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0A00-00001B000000}" name="Purchase Order/ Contract #" dataDxfId="168"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0A00-00001C000000}" name="Original Cost" dataDxfId="167"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0A00-00001D000000}" name="Model/Style/Catalog Number" dataDxfId="166"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0A00-00001E000000}" name="Serial Number" dataDxfId="165"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0A00-000022000000}" name="Pump?" dataDxfId="164"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0A00-000023000000}" name="Flow Rate (L/sec,USgpm,IMgpm)" dataDxfId="163"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0A00-000024000000}" name="Head (M, FT)_1" dataDxfId="162"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0A00-000025000000}" name="RPM" dataDxfId="161"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0A00-000026000000}" name="Suction Diameter (in, mm)_1" dataDxfId="160"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0A00-000027000000}" name="Discharge Diameter (in, mm)_1" dataDxfId="159"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0A00-000028000000}" name="Seal Type (Mech, Packing)" dataDxfId="158"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0A00-000029000000}" name="Number of Stages" dataDxfId="157"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0A00-00002A000000}" name="Lubrication (oil, grease)" dataDxfId="156"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0A00-00002B000000}" name="Impeller Diameter (in, mm)_1" dataDxfId="155"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0A00-00002C000000}" name="Impeller Sleeve Diameter_1" dataDxfId="154"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0A00-00002D000000}" name="Number of Impeller Vanes" dataDxfId="153"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0A00-00002E000000}" name="Impeller Material" dataDxfId="152"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0A00-00002F000000}" name="Rotation (CW, CCW)" dataDxfId="151"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0A00-000030000000}" name="Inboard Bearing Part # / Type" dataDxfId="150"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0A00-000031000000}" name="Outboard Bearing Part # / Type" dataDxfId="149"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0A00-000032000000}" name="Thrust Bearing Part # / Type" dataDxfId="148"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0A00-000033000000}" name="Additional Nameplate Info" dataDxfId="147"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0A00-000034000000}" name="Drive (Direct, Belt or Gear Box)" dataDxfId="146"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0A00-000035000000}" name="Coupling Type and Size" dataDxfId="145"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0A00-000036000000}" name="Belt Type and Size" dataDxfId="144"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0A00-000037000000}" name="Motor?" dataDxfId="143"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0A00-000038000000}" name="Motor Function" dataDxfId="142"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0A00-000039000000}" name="Watts" dataDxfId="141"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0A00-00003A000000}" name="Horse Power" dataDxfId="140"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0A00-00003B000000}" name="RPM3" dataDxfId="139"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0A00-00003C000000}" name="AC or DC" dataDxfId="138"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0A00-00003D000000}" name="Number of Phases" dataDxfId="137"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0A00-00003E000000}" name="Cycles (Hz)" dataDxfId="136"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0A00-00003F000000}" name="Frame Size" dataDxfId="135"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0A00-000040000000}" name="Frame Type (TEFC, DE,ODP)" dataDxfId="134"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0A00-000041000000}" name="Amperage (A, mA)" dataDxfId="133"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0A00-000042000000}" name="Voltage" dataDxfId="132"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0A00-000043000000}" name="Abbreviation" dataDxfId="131"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0A00-000044000000}" name="Insulation Class Code" dataDxfId="130"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0A00-000045000000}" name="Inboard Bearing Part #" dataDxfId="129"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0A00-000046000000}" name="Outboard Bearing Part #" dataDxfId="128"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0A00-000047000000}" name="Type (Ind, Synchr, Series, Shunt)" dataDxfId="127"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0A00-000048000000}" name="Mount, (Horizontal, Vertical)" dataDxfId="126"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0A00-000049000000}" name="Shaft (Single or Double Output)" dataDxfId="125"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0A00-00004A000000}" name="Additional Nameplate Info4" dataDxfId="124"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0A00-00004C000000}" name="Valve?" dataDxfId="123"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0A00-00004D000000}" name="Process Application" dataDxfId="122"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0A00-00004E000000}" name="Valve Type" dataDxfId="121"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0A00-00004F000000}" name="Connection Type" dataDxfId="120"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0A00-000050000000}" name="Valve Size" dataDxfId="119"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0A00-000051000000}" name="Body Type" dataDxfId="118"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0A00-000052000000}" name="Pressure Rating" dataDxfId="117"/>
+    <tableColumn id="83" xr3:uid="{00000000-0010-0000-0A00-000053000000}" name="Seat Material" dataDxfId="116"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0A00-000054000000}" name="Packing Material/Size" dataDxfId="115"/>
+    <tableColumn id="85" xr3:uid="{00000000-0010-0000-0A00-000055000000}" name="Interior Coated" dataDxfId="114"/>
+    <tableColumn id="86" xr3:uid="{00000000-0010-0000-0A00-000056000000}" name="Number of Rotations" dataDxfId="113"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0A00-000057000000}" name="Operator Manufacture" dataDxfId="112"/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0A00-000058000000}" name="Operator Type" dataDxfId="111"/>
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0A00-000059000000}" name="Operator Model Number" dataDxfId="110"/>
+    <tableColumn id="90" xr3:uid="{00000000-0010-0000-0A00-00005A000000}" name="Operator Size" dataDxfId="109"/>
+    <tableColumn id="91" xr3:uid="{00000000-0010-0000-0A00-00005B000000}" name="Operating Torque" dataDxfId="108"/>
+    <tableColumn id="92" xr3:uid="{00000000-0010-0000-0A00-00005C000000}" name="Clockwise to Open" dataDxfId="107"/>
+    <tableColumn id="93" xr3:uid="{00000000-0010-0000-0A00-00005D000000}" name="Additional Operator Info." dataDxfId="106"/>
+    <tableColumn id="94" xr3:uid="{00000000-0010-0000-0A00-00005E000000}" name="Actuator Name Plate Info" dataDxfId="105"/>
+    <tableColumn id="95" xr3:uid="{00000000-0010-0000-0A00-00005F000000}" name="Additional Valve Info." dataDxfId="104"/>
+    <tableColumn id="97" xr3:uid="{00000000-0010-0000-0A00-000061000000}" name="Instrumentation?" dataDxfId="103"/>
+    <tableColumn id="98" xr3:uid="{00000000-0010-0000-0A00-000062000000}" name="Supply" dataDxfId="102"/>
+    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0A00-000063000000}" name="Display" dataDxfId="101"/>
+    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0A00-000064000000}" name="Input" dataDxfId="100"/>
+    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0A00-000065000000}" name="Output" dataDxfId="99"/>
+    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0A00-000066000000}" name="Range" dataDxfId="98"/>
+    <tableColumn id="103" xr3:uid="{00000000-0010-0000-0A00-000067000000}" name="Calibration Range" dataDxfId="97"/>
+    <tableColumn id="104" xr3:uid="{00000000-0010-0000-0A00-000068000000}" name="Activation Parameter" dataDxfId="96"/>
+    <tableColumn id="105" xr3:uid="{00000000-0010-0000-0A00-000069000000}" name="Pressure Rating2" dataDxfId="95"/>
+    <tableColumn id="106" xr3:uid="{00000000-0010-0000-0A00-00006A000000}" name="Breaker?" dataDxfId="94"/>
+    <tableColumn id="107" xr3:uid="{00000000-0010-0000-0A00-00006B000000}" name="Type" dataDxfId="93"/>
+    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0A00-00006C000000}" name="Insulation Medium" dataDxfId="92"/>
+    <tableColumn id="109" xr3:uid="{00000000-0010-0000-0A00-00006D000000}" name="Load Voltage" dataDxfId="91"/>
+    <tableColumn id="110" xr3:uid="{00000000-0010-0000-0A00-00006E000000}" name="Frame Size Amp." dataDxfId="90"/>
+    <tableColumn id="111" xr3:uid="{00000000-0010-0000-0A00-00006F000000}" name="Modular Trip Unit?" dataDxfId="89"/>
+    <tableColumn id="112" xr3:uid="{00000000-0010-0000-0A00-000070000000}" name="Trip Unit Type" dataDxfId="88"/>
+    <tableColumn id="113" xr3:uid="{00000000-0010-0000-0A00-000071000000}" name="Trip Unit Sensor Rating In" dataDxfId="87"/>
+    <tableColumn id="114" xr3:uid="{00000000-0010-0000-0A00-000072000000}" name="Trip Unit OEM Name" dataDxfId="86"/>
+    <tableColumn id="115" xr3:uid="{00000000-0010-0000-0A00-000073000000}" name="Trip Unit Model" dataDxfId="85"/>
+    <tableColumn id="116" xr3:uid="{00000000-0010-0000-0A00-000074000000}" name="Separate CT/PT?" dataDxfId="84"/>
+    <tableColumn id="117" xr3:uid="{00000000-0010-0000-0A00-000075000000}" name="Separate Protection Relay?" dataDxfId="83"/>
+    <tableColumn id="118" xr3:uid="{00000000-0010-0000-0A00-000076000000}" name="Starter?" dataDxfId="82"/>
+    <tableColumn id="119" xr3:uid="{00000000-0010-0000-0A00-000077000000}" name="Load Voltage3" dataDxfId="81"/>
+    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0A00-000078000000}" name="Load F.L.A." dataDxfId="80"/>
+    <tableColumn id="121" xr3:uid="{00000000-0010-0000-0A00-000079000000}" name="Number of Phases4" dataDxfId="79"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0A00-00007A000000}" name="Starter - Configuration" dataDxfId="78"/>
+    <tableColumn id="123" xr3:uid="{00000000-0010-0000-0A00-00007B000000}" name="Starter - Starting method" dataDxfId="77"/>
+    <tableColumn id="124" xr3:uid="{00000000-0010-0000-0A00-00007C000000}" name="All Overload Element(s) Type(s)" dataDxfId="76"/>
+    <tableColumn id="125" xr3:uid="{00000000-0010-0000-0A00-00007D000000}" name="Respective Overload Element(s) Location(s)" dataDxfId="75"/>
+    <tableColumn id="126" xr3:uid="{00000000-0010-0000-0A00-00007E000000}" name="Starter Contactor - OEM and Model #" dataDxfId="74"/>
+    <tableColumn id="127" xr3:uid="{00000000-0010-0000-0A00-00007F000000}" name="Starter Contactor - Max Amps." dataDxfId="73"/>
+    <tableColumn id="128" xr3:uid="{00000000-0010-0000-0A00-000080000000}" name="Starter Contactor - Coil Voltage" dataDxfId="72"/>
+    <tableColumn id="129" xr3:uid="{00000000-0010-0000-0A00-000081000000}" name="Contact Insulation Medium (for MV)" dataDxfId="71"/>
+    <tableColumn id="130" xr3:uid="{00000000-0010-0000-0A00-000082000000}" name="Starter Control Transformer VA" dataDxfId="70"/>
+    <tableColumn id="131" xr3:uid="{00000000-0010-0000-0A00-000083000000}" name="Starter Control  Fuse - OEM and Catalog No." dataDxfId="69"/>
+    <tableColumn id="132" xr3:uid="{00000000-0010-0000-0A00-000084000000}" name="Main Fuse - OEM and Catalog No." dataDxfId="68"/>
+    <tableColumn id="133" xr3:uid="{00000000-0010-0000-0A00-000085000000}" name="μ-Processor Relay - OEM and Model No." dataDxfId="67"/>
+    <tableColumn id="134" xr3:uid="{00000000-0010-0000-0A00-000086000000}" name="Soft starter - OEM and Model No." dataDxfId="66"/>
+    <tableColumn id="135" xr3:uid="{00000000-0010-0000-0A00-000087000000}" name="Contractor" dataDxfId="65"/>
+    <tableColumn id="136" xr3:uid="{00000000-0010-0000-0A00-000088000000}" name="Transformer?" dataDxfId="64"/>
+    <tableColumn id="137" xr3:uid="{00000000-0010-0000-0A00-000089000000}" name="Primary Voltage (Centre Tap)" dataDxfId="63"/>
+    <tableColumn id="138" xr3:uid="{00000000-0010-0000-0A00-00008A000000}" name="Secondary Voltage" dataDxfId="62"/>
+    <tableColumn id="139" xr3:uid="{00000000-0010-0000-0A00-00008B000000}" name="kVA Rating (@ max cooling)" dataDxfId="61"/>
+    <tableColumn id="140" xr3:uid="{00000000-0010-0000-0A00-00008C000000}" name="Cooling Type" dataDxfId="60"/>
+    <tableColumn id="141" xr3:uid="{00000000-0010-0000-0A00-00008D000000}" name="Winding Configuration" dataDxfId="59"/>
+    <tableColumn id="142" xr3:uid="{00000000-0010-0000-0A00-00008E000000}" name="Oil Filled _x000a_/ Dry Type" dataDxfId="58"/>
+    <tableColumn id="143" xr3:uid="{00000000-0010-0000-0A00-00008F000000}" name="Oil Type" dataDxfId="57"/>
+    <tableColumn id="144" xr3:uid="{00000000-0010-0000-0A00-000090000000}" name="Sudden pressure relay installed?" dataDxfId="56"/>
+    <tableColumn id="145" xr3:uid="{00000000-0010-0000-0A00-000091000000}" name="Cable Teminal Type" dataDxfId="55"/>
+    <tableColumn id="146" xr3:uid="{00000000-0010-0000-0A00-000092000000}" name="NGR_x000a_Resistance" dataDxfId="54"/>
+    <tableColumn id="147" xr3:uid="{00000000-0010-0000-0A00-000093000000}" name="Online Gas Monitor Installed" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="HVAC?" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0A00-00000B000000}" name="Type (Draw-Thru or Blow-Thru)" dataDxfId="51"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="CFM Rating" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="Static Pressure Rating" dataDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="Drive (Direct, Belt or Gear Box)2" dataDxfId="48"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="Pulley Dimensions - Motor" dataDxfId="47"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0A00-000011000000}" name="Pulley Dimension - Fan" dataDxfId="46"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0A00-000012000000}" name="Belt Size and Quantity" dataDxfId="45"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0A00-000013000000}" name="Inboard Fan Bearing  #" dataDxfId="44"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0A00-000014000000}" name="Outboard Fan Bearing #" dataDxfId="43"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0A00-000015000000}" name="Coupling Type and Size3" dataDxfId="42"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0A00-000016000000}" name="Cooling Coil Description" dataDxfId="41"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0A00-000017000000}" name="Filter Type Description" dataDxfId="40"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0A00-00001F000000}" name="Filter Dimensions and #" dataDxfId="39"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0A00-000020000000}" name="Evaporator Style" dataDxfId="38"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0A00-00004B000000}" name="Evaporator Dimensions" dataDxfId="37"/>
+    <tableColumn id="96" xr3:uid="{00000000-0010-0000-0A00-000060000000}" name="Humidification Info." dataDxfId="36"/>
+    <tableColumn id="150" xr3:uid="{00000000-0010-0000-0A00-000096000000}" name="Compressor Name Plate Info." dataDxfId="35"/>
+    <tableColumn id="152" xr3:uid="{00000000-0010-0000-0A00-000098000000}" name="Damper Info." dataDxfId="34"/>
+    <tableColumn id="153" xr3:uid="{00000000-0010-0000-0A00-000099000000}" name="Additional Information" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="68" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="OEMmaintenance" displayName="OEMmaintenance" ref="A12:G14" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowBorderDxfId="26" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="68" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="OEMmaintenance" displayName="OEMmaintenance" ref="A12:G14" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
   <autoFilter ref="A12:G14" xr:uid="{00000000-0009-0000-0100-000044000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Entity Numbers" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Entity Maintenance Activity #" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Maintenance Activity Name" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Detailed Maintenace Activity Procedure" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Activity Trades Requirements" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Estimated Time (hr)" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Activity Frequency" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Entity Numbers" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Entity Maintenance Activity #" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Maintenance Activity Name" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Detailed Maintenace Activity Procedure" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Activity Trades Requirements" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Estimated Time (hr)" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Activity Frequency" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11643,32 +11643,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table5" displayName="Table5" ref="B2:F3" insertRow="1" totalsRowShown="0">
   <autoFilter ref="B2:F3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Comment Number" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Commenter" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Comment for" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Date" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Comment Text" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Comment Number" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Commenter" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Comment for" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Date" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Comment Text" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="OEM_Maintenance_Unfurled" displayName="OEM_Maintenance_Unfurled" ref="A5:L16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="OEM_Maintenance_Unfurled" displayName="OEM_Maintenance_Unfurled" ref="A5:L16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A5:L16" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="12">
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0D00-000019000000}" uniqueName="25" name="Assets Sheet Entity" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0D00-00001A000000}" uniqueName="26" name="OEM Sheet Entity" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0D00-00001B000000}" uniqueName="27" name="Entity Name" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0D00-00001C000000}" uniqueName="28" name="Major Process Start-Up" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0D00-00001D000000}" uniqueName="29" name="Entity Classification" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0D00-00001E000000}" uniqueName="30" name="Entity Category" queryTableFieldId="6" dataDxfId="6"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0D00-00001F000000}" uniqueName="31" name="Entity Maintenance Activity #" queryTableFieldId="7" dataDxfId="5"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0D00-000020000000}" uniqueName="32" name="Maintenance Activity Name" queryTableFieldId="8" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0D00-000021000000}" uniqueName="33" name="Detailed Maintenace Activity Procedure" queryTableFieldId="9" dataDxfId="3"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0D00-000022000000}" uniqueName="34" name="Activity Trades Requirements" queryTableFieldId="10" dataDxfId="2"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0D00-000023000000}" uniqueName="35" name="Estimated Time (hr)" queryTableFieldId="11" dataDxfId="1"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0D00-000024000000}" uniqueName="36" name="Activity Frequency" queryTableFieldId="12" dataDxfId="0"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0D00-000019000000}" uniqueName="25" name="Assets Sheet Entity" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0D00-00001A000000}" uniqueName="26" name="OEM Sheet Entity" queryTableFieldId="2" dataDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0D00-00001B000000}" uniqueName="27" name="Entity Name" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0D00-00001C000000}" uniqueName="28" name="Major Process Start-Up" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0D00-00001D000000}" uniqueName="29" name="Entity Classification" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0D00-00001E000000}" uniqueName="30" name="Entity Category" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0D00-00001F000000}" uniqueName="31" name="Entity Maintenance Activity #" queryTableFieldId="7" dataDxfId="8"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0D00-000020000000}" uniqueName="32" name="Maintenance Activity Name" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0D00-000021000000}" uniqueName="33" name="Detailed Maintenace Activity Procedure" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0D00-000022000000}" uniqueName="34" name="Activity Trades Requirements" queryTableFieldId="10" dataDxfId="5"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0D00-000023000000}" uniqueName="35" name="Estimated Time (hr)" queryTableFieldId="11" dataDxfId="4"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0D00-000024000000}" uniqueName="36" name="Activity Frequency" queryTableFieldId="12" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleQueryPreview" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11736,7 +11736,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table2" displayName="Table2" ref="K19:K24" totalsRowShown="0" headerRowDxfId="212" dataDxfId="211" headerRowBorderDxfId="209" tableBorderDxfId="210" totalsRowBorderDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table2" displayName="Table2" ref="K19:K24" totalsRowShown="0" headerRowDxfId="212" dataDxfId="210" headerRowBorderDxfId="211" tableBorderDxfId="209" totalsRowBorderDxfId="208">
   <autoFilter ref="K19:K24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Physical Entity Is " dataDxfId="207"/>
@@ -12048,11 +12048,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Q699"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" customWidth="1"/>
@@ -12067,40 +12067,40 @@
     <col min="13" max="13" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C1" s="5"/>
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C2" s="8"/>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C3" s="9"/>
       <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
@@ -12237,7 +12237,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>78</v>
       </c>
@@ -12369,7 +12369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -12389,7 +12389,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>90</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>101</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="25.5">
+    <row r="23" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>107</v>
       </c>
@@ -12466,7 +12466,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>109</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>113</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>118</v>
       </c>
@@ -12523,7 +12523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>123</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>128</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>134</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>137</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>140</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>144</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>147</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>151</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>154</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>156</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>159</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>161</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>163</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>166</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>168</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>170</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>172</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>175</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>177</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>179</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>181</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>183</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>185</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>188</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>191</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>193</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>196</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>197</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>200</v>
       </c>
@@ -12826,7 +12826,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>202</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>203</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>205</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>207</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>208</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>209</v>
       </c>
@@ -12874,7 +12874,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>211</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>214</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>215</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>217</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>219</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>221</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>223</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>226</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>228</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>230</v>
       </c>
@@ -12961,7 +12961,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>232</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>234</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>235</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>238</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>240</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>241</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>242</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>244</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>247</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>249</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>251</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>253</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>254</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>257</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>260</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>263</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>265</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>266</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>269</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>271</v>
       </c>
@@ -13146,7 +13146,7 @@
       </c>
       <c r="E91" s="12"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>273</v>
       </c>
@@ -13159,7 +13159,7 @@
       </c>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>275</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>277</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>279</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>281</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>283</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>286</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>288</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>291</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>293</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>297</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>298</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>300</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>303</v>
       </c>
@@ -13284,7 +13284,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>306</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>308</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>311</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>313</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>315</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>319</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>322</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>325</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>328</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>331</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>333</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>334</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>336</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>338</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>340</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>342</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>344</v>
       </c>
@@ -13444,7 +13444,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>346</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>349</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>351</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>353</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>356</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>153</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>360</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>361</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>363</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>366</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>368</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>370</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>373</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>374</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>376</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>379</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>381</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>382</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>384</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>386</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>388</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>391</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>394</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>397</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>399</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>401</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>404</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>407</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>409</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>410</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>413</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>415</v>
       </c>
@@ -13748,27 +13748,27 @@
         <v>417</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D155" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D156" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D157" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D158" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D159" s="1" t="s">
         <v>420</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D160" s="1" t="s">
         <v>422</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="161" spans="4:5">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D161" s="1" t="s">
         <v>424</v>
       </c>
@@ -13792,643 +13792,643 @@
         <v>425</v>
       </c>
     </row>
-    <row r="162" spans="4:5">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D162" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="163" spans="4:5">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D163" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="4:5">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D164" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="4:5">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D165" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="166" spans="4:5">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D166" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="167" spans="4:5">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D167" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="4:5">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D168" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="169" spans="4:5">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D169" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="170" spans="4:5">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D170" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="4:5">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D171" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="172" spans="4:5">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D172" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="4:5">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D173" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="174" spans="4:5">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D174" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="175" spans="4:5">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D175" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="176" spans="4:5">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D176" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="177" spans="4:5">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D177" s="1" t="s">
         <v>437</v>
       </c>
       <c r="E177" s="2"/>
     </row>
-    <row r="178" spans="4:5">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D178" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="179" spans="4:5">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D179" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="180" spans="4:5">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D180" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="181" spans="4:5">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D181" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="182" spans="4:5">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D182" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="183" spans="4:5">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D183" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="184" spans="4:5">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D184" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="185" spans="4:5">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D185" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="186" spans="4:5">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D186" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="187" spans="4:5">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D187" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="188" spans="4:5">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D188" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="4:5">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D189" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="190" spans="4:5">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D190" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="191" spans="4:5">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D191" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="192" spans="4:5">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D192" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="193" spans="4:4">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D193" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="194" spans="4:4">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D194" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="195" spans="4:4">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D195" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="196" spans="4:4">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D196" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="197" spans="4:4">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D197" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="198" spans="4:4">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D198" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="4:4">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D199" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="200" spans="4:4">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D200" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="201" spans="4:4">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D201" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="202" spans="4:4">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D202" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="203" spans="4:4">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D203" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="204" spans="4:4">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D204" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="205" spans="4:4">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D205" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="206" spans="4:4">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D206" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="207" spans="4:4">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D207" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="208" spans="4:4">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D208" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="209" spans="4:4">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D209" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="210" spans="4:4">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D210" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="211" spans="4:4">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D211" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="212" spans="4:4">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D212" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="213" spans="4:4">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D213" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="214" spans="4:4">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D214" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="215" spans="4:4">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D215" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="216" spans="4:4">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D216" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="217" spans="4:4">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D217" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="218" spans="4:4">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D218" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="219" spans="4:4">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D219" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="220" spans="4:4">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D220" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="221" spans="4:4">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D221" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="222" spans="4:4">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D222" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="223" spans="4:4">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D223" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="224" spans="4:4">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D224" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="225" spans="4:4">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D225" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="226" spans="4:4">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D226" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="227" spans="4:4">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D227" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="228" spans="4:4">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D228" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="229" spans="4:4">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D229" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="230" spans="4:4">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D230" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="231" spans="4:4">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D231" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="232" spans="4:4">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D232" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="233" spans="4:4">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D233" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="234" spans="4:4">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D234" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="235" spans="4:4">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D235" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="236" spans="4:4">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D236" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="237" spans="4:4">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D237" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="238" spans="4:4">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D238" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="239" spans="4:4">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D239" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="240" spans="4:4">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D240" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="4:4">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D241" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="242" spans="4:4">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D242" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="243" spans="4:4">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D243" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="244" spans="4:4">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D244" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="245" spans="4:4">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D245" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="246" spans="4:4">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D246" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="247" spans="4:4">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D247" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="248" spans="4:4">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D248" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="249" spans="4:4">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D249" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="250" spans="4:4">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D250" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="251" spans="4:4">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D251" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="252" spans="4:4">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D252" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="253" spans="4:4">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D253" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="254" spans="4:4">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D254" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="255" spans="4:4">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D255" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="256" spans="4:4">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D256" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="257" spans="4:4">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D257" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="258" spans="4:4">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D258" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="259" spans="4:4">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D259" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="260" spans="4:4">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D260" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="261" spans="4:4">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D261" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="262" spans="4:4">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D262" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="4:4">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D263" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="264" spans="4:4">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D264" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="265" spans="4:4">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D265" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="266" spans="4:4">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D266" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="267" spans="4:4">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D267" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="268" spans="4:4">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D268" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="269" spans="4:4">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D269" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="270" spans="4:4">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D270" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="271" spans="4:4">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D271" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="272" spans="4:4">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D272" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="273" spans="4:4">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D273" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="274" spans="4:4">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D274" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="275" spans="4:4">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D275" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="276" spans="4:4">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D276" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="277" spans="4:4">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D277" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="278" spans="4:4">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D278" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="279" spans="4:4">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D279" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="280" spans="4:4">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D280" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="281" spans="4:4">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D281" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="282" spans="4:4">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D282" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="283" spans="4:4">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D283" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="284" spans="4:4">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D284" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="285" spans="4:4">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D285" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="286" spans="4:4">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D286" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="287" spans="4:4">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D287" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="288" spans="4:4">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D288" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="289" spans="4:5">
+    <row r="289" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D289" s="1" t="s">
         <v>534</v>
       </c>
@@ -14436,714 +14436,714 @@
         <v>535</v>
       </c>
     </row>
-    <row r="290" spans="4:5">
+    <row r="290" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D290" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="291" spans="4:5">
+    <row r="291" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D291" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="292" spans="4:5">
+    <row r="292" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D292" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="293" spans="4:5">
+    <row r="293" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D293" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="294" spans="4:5">
+    <row r="294" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D294" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="295" spans="4:5">
+    <row r="295" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D295" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="296" spans="4:5">
+    <row r="296" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D296" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="297" spans="4:5">
+    <row r="297" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D297" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="298" spans="4:5">
+    <row r="298" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D298" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="299" spans="4:5">
+    <row r="299" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D299" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="300" spans="4:5">
+    <row r="300" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D300" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="301" spans="4:5">
+    <row r="301" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D301" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="302" spans="4:5">
+    <row r="302" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D302" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="303" spans="4:5">
+    <row r="303" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D303" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="304" spans="4:5">
+    <row r="304" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D304" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="305" spans="4:4">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D305" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="306" spans="4:4">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D306" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="307" spans="4:4">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D307" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="308" spans="4:4">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D308" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="309" spans="4:4">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D309" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="310" spans="4:4">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D310" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="311" spans="4:4">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D311" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="312" spans="4:4">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D312" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="313" spans="4:4">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D313" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="314" spans="4:4">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D314" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="315" spans="4:4">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D315" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="316" spans="4:4">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D316" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="317" spans="4:4">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D317" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="318" spans="4:4">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D318" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="319" spans="4:4">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D319" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="320" spans="4:4">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D320" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="321" spans="4:4">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D321" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="322" spans="4:4">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D322" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="323" spans="4:4">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D323" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="324" spans="4:4">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D324" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="325" spans="4:4">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D325" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="326" spans="4:4">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D326" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="327" spans="4:4">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D327" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="328" spans="4:4">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D328" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="329" spans="4:4">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D329" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="330" spans="4:4">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D330" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="331" spans="4:4">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D331" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="332" spans="4:4">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D332" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="333" spans="4:4">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D333" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="334" spans="4:4">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D334" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="335" spans="4:4">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D335" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="336" spans="4:4">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D336" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="337" spans="4:5">
+    <row r="337" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D337" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="338" spans="4:5">
+    <row r="338" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D338" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="339" spans="4:5">
+    <row r="339" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D339" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="340" spans="4:5">
+    <row r="340" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D340" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="341" spans="4:5">
+    <row r="341" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D341" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="342" spans="4:5">
+    <row r="342" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D342" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="343" spans="4:5">
+    <row r="343" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D343" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="344" spans="4:5">
+    <row r="344" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D344" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="345" spans="4:5">
+    <row r="345" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D345" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="346" spans="4:5">
+    <row r="346" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D346" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="347" spans="4:5">
+    <row r="347" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D347" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="348" spans="4:5">
+    <row r="348" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D348" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="349" spans="4:5">
+    <row r="349" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D349" s="1" t="s">
         <v>590</v>
       </c>
       <c r="E349" s="5"/>
     </row>
-    <row r="350" spans="4:5">
+    <row r="350" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D350" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="351" spans="4:5">
+    <row r="351" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D351" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="352" spans="4:5">
+    <row r="352" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D352" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="353" spans="4:5">
+    <row r="353" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D353" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="354" spans="4:5">
+    <row r="354" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D354" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="355" spans="4:5">
+    <row r="355" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D355" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="356" spans="4:5">
+    <row r="356" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D356" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="357" spans="4:5">
+    <row r="357" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D357" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="358" spans="4:5">
+    <row r="358" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D358" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="359" spans="4:5">
+    <row r="359" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D359" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="360" spans="4:5">
+    <row r="360" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D360" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="361" spans="4:5">
+    <row r="361" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D361" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="362" spans="4:5">
+    <row r="362" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D362" s="1" t="s">
         <v>603</v>
       </c>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" spans="4:5">
+    <row r="363" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D363" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="364" spans="4:5">
+    <row r="364" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D364" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="365" spans="4:5">
+    <row r="365" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D365" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="366" spans="4:5">
+    <row r="366" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D366" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="367" spans="4:5">
+    <row r="367" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D367" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="368" spans="4:5">
+    <row r="368" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D368" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="369" spans="4:4">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D369" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="370" spans="4:4">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D370" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="371" spans="4:4">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D371" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="372" spans="4:4">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D372" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="373" spans="4:4">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D373" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="374" spans="4:4">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D374" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="375" spans="4:4">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D375" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="376" spans="4:4">
+    <row r="376" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D376" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="377" spans="4:4">
+    <row r="377" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D377" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="378" spans="4:4">
+    <row r="378" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D378" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="379" spans="4:4">
+    <row r="379" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D379" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="380" spans="4:4">
+    <row r="380" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D380" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="381" spans="4:4">
+    <row r="381" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D381" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="382" spans="4:4">
+    <row r="382" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D382" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="383" spans="4:4">
+    <row r="383" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D383" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="384" spans="4:4">
+    <row r="384" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D384" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="385" spans="4:4">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D385" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="386" spans="4:4">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D386" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="387" spans="4:4">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D387" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="388" spans="4:4">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D388" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="389" spans="4:4">
+    <row r="389" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D389" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="390" spans="4:4">
+    <row r="390" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D390" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="391" spans="4:4">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D391" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="392" spans="4:4">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D392" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="393" spans="4:4">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D393" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="394" spans="4:4">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D394" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="395" spans="4:4">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D395" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="396" spans="4:4">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D396" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="397" spans="4:4">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D397" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="398" spans="4:4">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D398" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="399" spans="4:4">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D399" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="400" spans="4:4">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D400" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="401" spans="4:4">
+    <row r="401" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D401" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="402" spans="4:4">
+    <row r="402" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D402" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="403" spans="4:4">
+    <row r="403" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D403" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="404" spans="4:4">
+    <row r="404" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D404" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="405" spans="4:4">
+    <row r="405" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D405" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="406" spans="4:4">
+    <row r="406" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D406" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="407" spans="4:4">
+    <row r="407" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D407" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="408" spans="4:4">
+    <row r="408" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D408" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="409" spans="4:4">
+    <row r="409" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D409" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="410" spans="4:4">
+    <row r="410" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D410" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="411" spans="4:4">
+    <row r="411" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D411" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="412" spans="4:4">
+    <row r="412" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D412" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="413" spans="4:4">
+    <row r="413" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D413" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="414" spans="4:4">
+    <row r="414" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D414" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="415" spans="4:4">
+    <row r="415" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D415" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="416" spans="4:4">
+    <row r="416" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D416" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="417" spans="4:5">
+    <row r="417" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D417" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="418" spans="4:5">
+    <row r="418" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D418" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="419" spans="4:5">
+    <row r="419" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D419" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="420" spans="4:5">
+    <row r="420" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D420" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="421" spans="4:5">
+    <row r="421" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D421" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="422" spans="4:5">
+    <row r="422" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D422" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="423" spans="4:5">
+    <row r="423" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D423" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="424" spans="4:5">
+    <row r="424" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D424" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="425" spans="4:5">
+    <row r="425" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D425" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="426" spans="4:5">
+    <row r="426" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D426" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="427" spans="4:5">
+    <row r="427" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D427" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="428" spans="4:5">
+    <row r="428" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D428" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="429" spans="4:5">
+    <row r="429" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D429" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="430" spans="4:5">
+    <row r="430" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D430" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="431" spans="4:5">
+    <row r="431" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D431" s="1" t="s">
         <v>668</v>
       </c>
@@ -15151,122 +15151,122 @@
         <v>669</v>
       </c>
     </row>
-    <row r="432" spans="4:5">
+    <row r="432" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D432" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="433" spans="4:4">
+    <row r="433" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D433" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="434" spans="4:4">
+    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D434" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="435" spans="4:4">
+    <row r="435" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D435" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="436" spans="4:4">
+    <row r="436" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D436" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="437" spans="4:4">
+    <row r="437" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D437" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="438" spans="4:4">
+    <row r="438" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D438" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="439" spans="4:4">
+    <row r="439" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D439" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="440" spans="4:4">
+    <row r="440" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D440" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="441" spans="4:4">
+    <row r="441" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D441" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="442" spans="4:4">
+    <row r="442" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D442" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="443" spans="4:4">
+    <row r="443" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D443" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="444" spans="4:4">
+    <row r="444" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D444" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="445" spans="4:4">
+    <row r="445" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D445" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="446" spans="4:4">
+    <row r="446" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D446" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="447" spans="4:4">
+    <row r="447" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D447" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="448" spans="4:4">
+    <row r="448" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D448" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="449" spans="4:5">
+    <row r="449" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D449" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="450" spans="4:5">
+    <row r="450" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D450" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="451" spans="4:5">
+    <row r="451" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D451" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="452" spans="4:5">
+    <row r="452" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D452" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="453" spans="4:5">
+    <row r="453" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D453" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="454" spans="4:5">
+    <row r="454" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D454" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="455" spans="4:5">
+    <row r="455" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D455" s="1" t="s">
         <v>692</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="456" spans="4:5">
+    <row r="456" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D456" s="1" t="s">
         <v>694</v>
       </c>
@@ -15282,207 +15282,207 @@
         <v>695</v>
       </c>
     </row>
-    <row r="457" spans="4:5">
+    <row r="457" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D457" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="458" spans="4:5">
+    <row r="458" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D458" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="459" spans="4:5">
+    <row r="459" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D459" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="460" spans="4:5">
+    <row r="460" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D460" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="461" spans="4:5">
+    <row r="461" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D461" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="462" spans="4:5">
+    <row r="462" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D462" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="463" spans="4:5">
+    <row r="463" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D463" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="464" spans="4:5">
+    <row r="464" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D464" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="465" spans="4:4">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D465" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="466" spans="4:4">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D466" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="467" spans="4:4">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D467" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="468" spans="4:4">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D468" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="469" spans="4:4">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D469" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="470" spans="4:4">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D470" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="471" spans="4:4">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D471" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="472" spans="4:4">
+    <row r="472" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D472" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="473" spans="4:4">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D473" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="474" spans="4:4">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D474" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="475" spans="4:4">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D475" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="476" spans="4:4">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D476" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="477" spans="4:4">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D477" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="478" spans="4:4">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D478" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="479" spans="4:4">
+    <row r="479" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D479" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="480" spans="4:4">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D480" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="481" spans="4:4">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D481" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="482" spans="4:4">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D482" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="483" spans="4:4">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D483" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="484" spans="4:4">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D484" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="485" spans="4:4">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D485" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="486" spans="4:4">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D486" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="487" spans="4:4">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D487" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="488" spans="4:4">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D488" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="489" spans="4:4">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D489" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="490" spans="4:4">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D490" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="491" spans="4:4">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D491" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="492" spans="4:4">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D492" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="493" spans="4:4">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D493" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="494" spans="4:4">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D494" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="495" spans="4:4">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D495" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="496" spans="4:4">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D496" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="497" spans="4:5">
+    <row r="497" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D497" s="1" t="s">
         <v>730</v>
       </c>
@@ -15490,774 +15490,774 @@
         <v>731</v>
       </c>
     </row>
-    <row r="498" spans="4:5">
+    <row r="498" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D498" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="499" spans="4:5">
+    <row r="499" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D499" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="500" spans="4:5">
+    <row r="500" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D500" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="501" spans="4:5">
+    <row r="501" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D501" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="502" spans="4:5">
+    <row r="502" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D502" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="503" spans="4:5">
+    <row r="503" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D503" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="504" spans="4:5">
+    <row r="504" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D504" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="505" spans="4:5">
+    <row r="505" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D505" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="506" spans="4:5">
+    <row r="506" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D506" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="507" spans="4:5">
+    <row r="507" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D507" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="508" spans="4:5">
+    <row r="508" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D508" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="509" spans="4:5">
+    <row r="509" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D509" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="510" spans="4:5">
+    <row r="510" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D510" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="511" spans="4:5">
+    <row r="511" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D511" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="512" spans="4:5">
+    <row r="512" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D512" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="513" spans="4:4">
+    <row r="513" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D513" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="514" spans="4:4">
+    <row r="514" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D514" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="515" spans="4:4">
+    <row r="515" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D515" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="516" spans="4:4">
+    <row r="516" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D516" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="517" spans="4:4">
+    <row r="517" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D517" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="518" spans="4:4">
+    <row r="518" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D518" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="519" spans="4:4">
+    <row r="519" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D519" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="520" spans="4:4">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D520" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="521" spans="4:4">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D521" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="522" spans="4:4">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D522" s="1" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="523" spans="4:4">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D523" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="524" spans="4:4">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D524" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="525" spans="4:4">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D525" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="526" spans="4:4">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D526" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="527" spans="4:4">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D527" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="528" spans="4:4">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D528" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="529" spans="4:4">
+    <row r="529" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D529" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="530" spans="4:4">
+    <row r="530" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D530" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="531" spans="4:4">
+    <row r="531" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D531" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="532" spans="4:4">
+    <row r="532" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D532" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="533" spans="4:4">
+    <row r="533" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D533" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="534" spans="4:4">
+    <row r="534" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D534" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="535" spans="4:4">
+    <row r="535" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D535" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="536" spans="4:4">
+    <row r="536" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D536" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="537" spans="4:4">
+    <row r="537" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D537" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="538" spans="4:4">
+    <row r="538" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D538" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="539" spans="4:4">
+    <row r="539" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D539" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="540" spans="4:4">
+    <row r="540" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D540" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="541" spans="4:4">
+    <row r="541" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D541" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="542" spans="4:4">
+    <row r="542" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D542" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="543" spans="4:4">
+    <row r="543" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D543" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="544" spans="4:4">
+    <row r="544" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D544" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="545" spans="4:4">
+    <row r="545" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D545" s="1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="546" spans="4:4">
+    <row r="546" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D546" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="547" spans="4:4">
+    <row r="547" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D547" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="548" spans="4:4">
+    <row r="548" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D548" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="549" spans="4:4">
+    <row r="549" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D549" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="550" spans="4:4">
+    <row r="550" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D550" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="551" spans="4:4">
+    <row r="551" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D551" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="552" spans="4:4">
+    <row r="552" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D552" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="553" spans="4:4">
+    <row r="553" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D553" s="1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="554" spans="4:4">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D554" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="555" spans="4:4">
+    <row r="555" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D555" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="556" spans="4:4">
+    <row r="556" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D556" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="557" spans="4:4">
+    <row r="557" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D557" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="558" spans="4:4">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D558" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="559" spans="4:4">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D559" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="560" spans="4:4">
+    <row r="560" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D560" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="561" spans="4:4">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D561" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="562" spans="4:4">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D562" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="563" spans="4:4">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D563" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="564" spans="4:4">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D564" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="565" spans="4:4">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D565" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="566" spans="4:4">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D566" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="567" spans="4:4">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D567" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="568" spans="4:4">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D568" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="569" spans="4:4">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D569" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="570" spans="4:4">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D570" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="571" spans="4:4">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D571" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="572" spans="4:4">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D572" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="573" spans="4:4">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D573" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="574" spans="4:4">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D574" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="575" spans="4:4">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D575" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="576" spans="4:4">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D576" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="577" spans="4:4">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D577" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="578" spans="4:4">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D578" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="579" spans="4:4">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D579" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="580" spans="4:4">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D580" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="581" spans="4:4">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D581" s="1" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="582" spans="4:4">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D582" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="583" spans="4:4">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D583" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="584" spans="4:4">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D584" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="585" spans="4:4">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D585" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="586" spans="4:4">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D586" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="587" spans="4:4">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D587" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="588" spans="4:4">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D588" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="589" spans="4:4">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D589" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="590" spans="4:4">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D590" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="591" spans="4:4">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D591" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="592" spans="4:4">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D592" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="593" spans="4:4">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D593" s="1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="594" spans="4:4">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D594" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="595" spans="4:4">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D595" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="596" spans="4:4">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D596" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="597" spans="4:4">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D597" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="598" spans="4:4">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D598" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="599" spans="4:4">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D599" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="600" spans="4:4">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D600" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="601" spans="4:4">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D601" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="602" spans="4:4">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D602" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="603" spans="4:4">
+    <row r="603" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D603" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="604" spans="4:4">
+    <row r="604" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D604" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="605" spans="4:4">
+    <row r="605" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D605" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="606" spans="4:4">
+    <row r="606" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D606" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="607" spans="4:4">
+    <row r="607" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D607" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="608" spans="4:4">
+    <row r="608" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D608" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="609" spans="4:5">
+    <row r="609" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D609" s="1" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="610" spans="4:5">
+    <row r="610" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D610" s="1" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="611" spans="4:5">
+    <row r="611" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D611" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="612" spans="4:5">
+    <row r="612" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D612" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="613" spans="4:5">
+    <row r="613" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D613" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="614" spans="4:5">
+    <row r="614" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D614" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="615" spans="4:5">
+    <row r="615" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D615" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="616" spans="4:5">
+    <row r="616" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D616" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="617" spans="4:5">
+    <row r="617" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D617" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="618" spans="4:5">
+    <row r="618" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D618" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="619" spans="4:5">
+    <row r="619" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D619" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="620" spans="4:5">
+    <row r="620" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D620" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="621" spans="4:5">
+    <row r="621" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D621" s="1" t="s">
         <v>392</v>
       </c>
       <c r="E621" s="9"/>
     </row>
-    <row r="622" spans="4:5">
+    <row r="622" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D622" s="1" t="s">
         <v>391</v>
       </c>
       <c r="E622" s="9"/>
     </row>
-    <row r="623" spans="4:5">
+    <row r="623" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D623" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="624" spans="4:5">
+    <row r="624" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D624" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="625" spans="4:4">
+    <row r="625" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D625" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="626" spans="4:4">
+    <row r="626" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D626" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="627" spans="4:4">
+    <row r="627" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D627" s="1" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="628" spans="4:4">
+    <row r="628" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D628" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="629" spans="4:4">
+    <row r="629" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D629" s="1" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="630" spans="4:4">
+    <row r="630" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D630" s="1" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="631" spans="4:4">
+    <row r="631" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D631" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="632" spans="4:4">
+    <row r="632" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D632" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="633" spans="4:4">
+    <row r="633" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D633" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="634" spans="4:4">
+    <row r="634" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D634" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="635" spans="4:4">
+    <row r="635" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D635" s="1" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="636" spans="4:4">
+    <row r="636" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D636" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="637" spans="4:4">
+    <row r="637" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D637" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="638" spans="4:4">
+    <row r="638" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D638" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="639" spans="4:4">
+    <row r="639" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D639" s="1" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="640" spans="4:4">
+    <row r="640" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D640" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="641" spans="4:5">
+    <row r="641" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D641" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="642" spans="4:5">
+    <row r="642" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D642" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="643" spans="4:5">
+    <row r="643" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D643" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="644" spans="4:5">
+    <row r="644" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D644" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="645" spans="4:5">
+    <row r="645" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D645" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="646" spans="4:5">
+    <row r="646" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D646" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="647" spans="4:5">
+    <row r="647" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D647" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="648" spans="4:5">
+    <row r="648" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D648" s="1" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="649" spans="4:5">
+    <row r="649" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D649" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="650" spans="4:5">
+    <row r="650" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D650" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="651" spans="4:5">
+    <row r="651" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D651" s="1" t="s">
         <v>870</v>
       </c>
@@ -16265,92 +16265,92 @@
         <v>871</v>
       </c>
     </row>
-    <row r="652" spans="4:5">
+    <row r="652" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D652" s="1" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="653" spans="4:5">
+    <row r="653" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D653" s="1" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="654" spans="4:5">
+    <row r="654" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D654" s="1" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="655" spans="4:5">
+    <row r="655" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D655" s="1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="656" spans="4:5">
+    <row r="656" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D656" s="1" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="657" spans="4:5">
+    <row r="657" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D657" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="658" spans="4:5">
+    <row r="658" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D658" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="659" spans="4:5">
+    <row r="659" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D659" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="660" spans="4:5">
+    <row r="660" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D660" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="661" spans="4:5">
+    <row r="661" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D661" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="662" spans="4:5">
+    <row r="662" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D662" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="663" spans="4:5">
+    <row r="663" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D663" s="1" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="664" spans="4:5">
+    <row r="664" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D664" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="665" spans="4:5">
+    <row r="665" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D665" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="666" spans="4:5">
+    <row r="666" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D666" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="667" spans="4:5">
+    <row r="667" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D667" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="668" spans="4:5">
+    <row r="668" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D668" s="1" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="669" spans="4:5">
+    <row r="669" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D669" s="1" t="s">
         <v>889</v>
       </c>
@@ -16358,7 +16358,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="670" spans="4:5">
+    <row r="670" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D670" s="1" t="s">
         <v>401</v>
       </c>
@@ -16366,137 +16366,137 @@
         <v>891</v>
       </c>
     </row>
-    <row r="671" spans="4:5">
+    <row r="671" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D671" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="672" spans="4:5">
+    <row r="672" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D672" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="673" spans="4:4">
+    <row r="673" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D673" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="674" spans="4:4">
+    <row r="674" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D674" s="1" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="675" spans="4:4">
+    <row r="675" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D675" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="676" spans="4:4">
+    <row r="676" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D676" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="677" spans="4:4">
+    <row r="677" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D677" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="678" spans="4:4">
+    <row r="678" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D678" s="1" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="679" spans="4:4">
+    <row r="679" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D679" s="1" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="680" spans="4:4">
+    <row r="680" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D680" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="681" spans="4:4">
+    <row r="681" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D681" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="682" spans="4:4">
+    <row r="682" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D682" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="683" spans="4:4">
+    <row r="683" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D683" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="684" spans="4:4">
+    <row r="684" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D684" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="685" spans="4:4">
+    <row r="685" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D685" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="686" spans="4:4">
+    <row r="686" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D686" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="687" spans="4:4">
+    <row r="687" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D687" s="1" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="688" spans="4:4">
+    <row r="688" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D688" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="689" spans="4:4">
+    <row r="689" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D689" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="690" spans="4:4">
+    <row r="690" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D690" s="1" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="691" spans="4:4">
+    <row r="691" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D691" s="1" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="692" spans="4:4">
+    <row r="692" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D692" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="693" spans="4:4">
+    <row r="693" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D693" s="1" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="694" spans="4:4">
+    <row r="694" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D694" s="1" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="697" spans="4:4">
+    <row r="697" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D697" s="17" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="698" spans="4:4">
+    <row r="698" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D698" s="15" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="699" spans="4:4">
+    <row r="699" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D699" s="16" t="s">
         <v>915</v>
       </c>
@@ -16522,11 +16522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" style="14" customWidth="1"/>
@@ -16542,7 +16542,7 @@
     <col min="12" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="110" t="s">
         <v>916</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.5" customHeight="1">
+    <row r="2" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="140" t="s">
         <v>918</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -16599,7 +16599,7 @@
       </c>
       <c r="K3" s="161"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -16615,7 +16615,7 @@
       </c>
       <c r="K4" s="161"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
@@ -16625,7 +16625,7 @@
       <c r="J5"/>
       <c r="K5" s="161"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -16633,7 +16633,7 @@
       <c r="J6"/>
       <c r="K6" s="161"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
@@ -16659,11 +16659,11 @@
   <dimension ref="A1:FE409"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="21" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="21" customWidth="1"/>
@@ -16767,7 +16767,7 @@
     <col min="158" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:157" s="14" customFormat="1" ht="23.45" customHeight="1">
+    <row r="1" spans="1:157" s="14" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="110" t="s">
         <v>927</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:157" s="74" customFormat="1" ht="11.45" customHeight="1" thickBot="1">
+    <row r="2" spans="1:157" s="74" customFormat="1" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="115" t="s">
         <v>929</v>
       </c>
@@ -17109,7 +17109,7 @@
       <c r="EZ2" s="103"/>
       <c r="FA2" s="105"/>
     </row>
-    <row r="3" spans="1:157" s="74" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="3" spans="1:157" s="74" customFormat="1" ht="45.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
       <c r="B3" s="75" t="s">
         <v>930</v>
@@ -17547,7 +17547,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="4" spans="1:157" s="74" customFormat="1" ht="57" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="4" spans="1:157" s="74" customFormat="1" ht="57" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76"/>
       <c r="B4" s="76" t="s">
         <v>1060</v>
@@ -17745,7 +17745,7 @@
       <c r="EY4" s="77"/>
       <c r="EZ4" s="77"/>
     </row>
-    <row r="5" spans="1:157" s="74" customFormat="1" ht="11.45" customHeight="1" collapsed="1" thickBot="1">
+    <row r="5" spans="1:157" s="74" customFormat="1" ht="11.45" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>1076</v>
       </c>
@@ -17906,7 +17906,7 @@
       <c r="EZ5" s="81"/>
       <c r="FA5" s="73"/>
     </row>
-    <row r="6" spans="1:157" s="24" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="6" spans="1:157" s="24" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="27" t="s">
         <v>930</v>
@@ -18346,7 +18346,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="7" spans="1:157" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="7" spans="1:157" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="28" t="s">
         <v>1078</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="EZ7" s="29"/>
     </row>
-    <row r="8" spans="1:157" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="8" spans="1:157" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
       <c r="C8" s="31"/>
@@ -19040,7 +19040,7 @@
       <c r="EY8" s="31"/>
       <c r="EZ8" s="31"/>
     </row>
-    <row r="9" spans="1:157" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="9" spans="1:157" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="31"/>
@@ -19264,7 +19264,7 @@
       <c r="EY9" s="29"/>
       <c r="EZ9" s="29"/>
     </row>
-    <row r="10" spans="1:157" s="30" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="10" spans="1:157" s="30" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
@@ -19350,7 +19350,7 @@
       <c r="CF10" s="62"/>
       <c r="CG10" s="62"/>
     </row>
-    <row r="11" spans="1:157" s="72" customFormat="1" ht="40.9" customHeight="1" collapsed="1" thickTop="1">
+    <row r="11" spans="1:157" s="72" customFormat="1" ht="40.9" customHeight="1" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>1214</v>
       </c>
@@ -19530,7 +19530,7 @@
       <c r="EY11" s="85"/>
       <c r="EZ11" s="85"/>
     </row>
-    <row r="12" spans="1:157" s="64" customFormat="1">
+    <row r="12" spans="1:157" s="64" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>1220</v>
       </c>
@@ -19996,7 +19996,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="13" spans="1:157" s="26" customFormat="1" ht="51.75" customHeight="1" thickBot="1">
+    <row r="13" spans="1:157" s="26" customFormat="1" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
         <v>1223</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="14" spans="1:157" ht="41.25" customHeight="1">
+    <row r="14" spans="1:157" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -20624,17 +20624,17 @@
       <c r="EY14" s="33"/>
       <c r="EZ14" s="33"/>
     </row>
-    <row r="15" spans="1:157" ht="42" customHeight="1"/>
-    <row r="16" spans="1:157" ht="43.5" customHeight="1"/>
-    <row r="17" ht="33.6" customHeight="1"/>
-    <row r="18" ht="39.75" customHeight="1"/>
-    <row r="407" spans="161:161">
+    <row r="15" spans="1:157" ht="42" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:157" ht="43.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="33.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="39.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" spans="161:161" x14ac:dyDescent="0.2">
       <c r="FE407" s="50"/>
     </row>
-    <row r="408" spans="161:161">
+    <row r="408" spans="161:161" x14ac:dyDescent="0.2">
       <c r="FE408" s="50"/>
     </row>
-    <row r="409" spans="161:161">
+    <row r="409" spans="161:161" x14ac:dyDescent="0.2">
       <c r="FE409" s="50"/>
     </row>
   </sheetData>
@@ -20642,17 +20642,15 @@
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="192" priority="31">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula xml:space="preserve"> IF($A14="Removed (without replacement)", TRUE, FALSE)</formula>
     </cfRule>
+    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="191" priority="30">
+    <cfRule type="expression" dxfId="0" priority="30">
       <formula>IF($A14 = "Added as new (to serve a new role)", TRUE, FALSE)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="190" priority="80"/>
   </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -20702,11 +20700,11 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="B19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" style="21" customWidth="1"/>
     <col min="2" max="2" width="28" style="21" customWidth="1"/>
@@ -20722,7 +20720,7 @@
     <col min="12" max="16384" width="9.140625" style="142"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>1250</v>
       </c>
@@ -20733,7 +20731,7 @@
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>1251</v>
       </c>
@@ -20744,7 +20742,7 @@
       <c r="F2" s="46"/>
       <c r="G2" s="143"/>
     </row>
-    <row r="3" spans="1:7" ht="25.5" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:7" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>1252</v>
       </c>
@@ -20767,7 +20765,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="37.9" hidden="1" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="4" spans="1:7" ht="37.9" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>1259</v>
       </c>
@@ -20788,7 +20786,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" collapsed="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:7" ht="17.25" customHeight="1" collapsed="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>1265</v>
       </c>
@@ -20799,7 +20797,7 @@
       <c r="F5" s="49"/>
       <c r="G5" s="146"/>
     </row>
-    <row r="6" spans="1:7" ht="25.5" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:7" ht="25.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>1252</v>
       </c>
@@ -20822,7 +20820,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="41.25" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="7" spans="1:7" ht="41.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
         <v>1266</v>
       </c>
@@ -20845,7 +20843,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="174" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="8" spans="1:7" ht="174" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
         <v>1266</v>
       </c>
@@ -20868,7 +20866,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="9" spans="1:7" ht="39" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>1274</v>
       </c>
@@ -20891,7 +20889,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.5" customHeight="1" collapsed="1" thickTop="1">
+    <row r="10" spans="1:7" ht="25.5" customHeight="1" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>1279</v>
       </c>
@@ -20902,7 +20900,7 @@
       <c r="F10" s="53"/>
       <c r="G10" s="148"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="149" t="s">
         <v>1280</v>
       </c>
@@ -20925,7 +20923,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="114" customHeight="1" thickBot="1">
+    <row r="12" spans="1:7" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>1282</v>
       </c>
@@ -20948,7 +20946,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="41"/>
       <c r="C13" s="20"/>
@@ -20957,7 +20955,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="106"/>
       <c r="C14" s="25"/>
@@ -21001,7 +20999,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -21009,7 +21007,7 @@
     <col min="6" max="6" width="49.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="22.5" customHeight="1">
+    <row r="1" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="162" t="s">
         <v>1285</v>
       </c>
@@ -21018,7 +21016,7 @@
       <c r="E1" s="163"/>
       <c r="F1" s="163"/>
     </row>
-    <row r="2" spans="2:6" ht="30" customHeight="1">
+    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="138" t="s">
         <v>1286</v>
       </c>
@@ -21035,7 +21033,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="139"/>
       <c r="C3" s="139"/>
       <c r="D3" s="139"/>
@@ -21072,7 +21070,7 @@
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -21095,7 +21093,7 @@
     <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="42" t="s">
         <v>1291</v>
       </c>
@@ -21111,7 +21109,7 @@
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
     </row>
-    <row r="2" spans="1:12" ht="18">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="156" t="s">
         <v>1292</v>
       </c>
@@ -21127,7 +21125,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="152"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -21141,7 +21139,7 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:12" ht="13.5" customHeight="1">
+    <row r="4" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="153" t="s">
         <v>1293</v>
       </c>
@@ -21157,7 +21155,7 @@
       <c r="K4" s="154"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1294</v>
       </c>
@@ -21195,7 +21193,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>1296</v>
@@ -21213,7 +21211,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1297</v>
       </c>
@@ -21230,7 +21228,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1300</v>
       </c>
@@ -21247,7 +21245,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>1302</v>
       </c>
@@ -21264,7 +21262,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>1305</v>
       </c>
@@ -21281,7 +21279,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1307</v>
       </c>
@@ -21298,7 +21296,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>1309</v>
       </c>
@@ -21315,22 +21313,22 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1314</v>
       </c>
@@ -21347,5 +21345,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1E8EC4-5B42-42E9-9ED5-FD16950026B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1E8EC4-5B42-42E9-9ED5-FD16950026B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/13040-WMS-EIW_for_THC.xlsx
+++ b/13040-WMS-EIW_for_THC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuang4\Desktop\shorter term WIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuang4\Git\EIW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71716EBB-6BE6-46EC-9CA9-CEC1AC59A3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CB3EF5-B95F-4DC3-BE53-C0120421AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="405" windowWidth="29040" windowHeight="15990" tabRatio="647" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="1259">
   <si>
     <t>= IN THIS SHEET NOT AVANTIS</t>
   </si>
@@ -4391,6 +4391,10 @@
   </si>
   <si>
     <t>HVAC Package Unit?</t>
+  </si>
+  <si>
+    <t>Phase 
+("Major Process Startup" at some sites)</t>
   </si>
 </sst>
 </file>
@@ -6102,10 +6106,6 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="51" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="44" fillId="38" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6171,13 +6171,13 @@
     <xf numFmtId="0" fontId="41" fillId="44" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6193,6 +6193,10 @@
     <xf numFmtId="0" fontId="41" fillId="49" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="45"/>
     </xf>
+    <xf numFmtId="2" fontId="51" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6276,6 +6280,2149 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="mm/dd/yyyy"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="ARIAL"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -6298,61 +8445,41 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -6376,6 +8503,585 @@
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -6411,2708 +9117,6 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="mm/dd/yyyy"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="ARIAL"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="mm/dd/yyyy"/>
@@ -10943,6 +10947,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{00000000-0016-0000-0500-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="13">
@@ -10991,157 +10999,157 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="AssetInfo" displayName="AssetInfo" ref="A13:DZ14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="AssetInfo" displayName="AssetInfo" ref="A13:DZ14" totalsRowShown="0" headerRowDxfId="166" dataDxfId="164" headerRowBorderDxfId="165" tableBorderDxfId="163">
   <autoFilter ref="A13:DZ14" xr:uid="{00000000-0009-0000-0100-000029000000}"/>
   <tableColumns count="130">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Change to Physical Asset" dataDxfId="163"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Final Entity Number" dataDxfId="162"/>
-    <tableColumn id="151" xr3:uid="{00000000-0010-0000-0A00-000097000000}" name="Original Entity Number in WMS" dataDxfId="161"/>
-    <tableColumn id="148" xr3:uid="{00000000-0010-0000-0A00-000094000000}" name="Final Parent Entity Number" dataDxfId="160"/>
-    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0A00-00009B000000}" name="Major Process Start-Up" dataDxfId="159"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Entity Name" dataDxfId="158"/>
-    <tableColumn id="156" xr3:uid="{00000000-0010-0000-0A00-00009C000000}" name="Comment Number(s)" dataDxfId="157"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0A00-000021000000}" name="Blank by intention" dataDxfId="156"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Entity Site Name" dataDxfId="155"/>
-    <tableColumn id="149" xr3:uid="{00000000-0010-0000-0A00-000095000000}" name="Reviewer Discipline" dataDxfId="154"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Entity Type" dataDxfId="153"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Entity Classification" dataDxfId="152"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="Entity Category" dataDxfId="151"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Entity Location Description" dataDxfId="150"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="Drawing Number" dataDxfId="149"/>
-    <tableColumn id="154" xr3:uid="{00000000-0010-0000-0A00-00009A000000}" name="Number of PM Activities Specified" dataDxfId="148">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Change to Physical Asset" dataDxfId="162"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Final Entity Number" dataDxfId="161"/>
+    <tableColumn id="151" xr3:uid="{00000000-0010-0000-0A00-000097000000}" name="Original Entity Number in WMS" dataDxfId="160"/>
+    <tableColumn id="148" xr3:uid="{00000000-0010-0000-0A00-000094000000}" name="Final Parent Entity Number" dataDxfId="159"/>
+    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0A00-00009B000000}" name="Phase _x000a_(&quot;Major Process Startup&quot; at some sites)" dataDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Entity Name" dataDxfId="157"/>
+    <tableColumn id="156" xr3:uid="{00000000-0010-0000-0A00-00009C000000}" name="Comment Number(s)" dataDxfId="156"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0A00-000021000000}" name="Blank by intention" dataDxfId="155"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Entity Site Name" dataDxfId="154"/>
+    <tableColumn id="149" xr3:uid="{00000000-0010-0000-0A00-000095000000}" name="Reviewer Discipline" dataDxfId="153"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="Entity Type" dataDxfId="152"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0A00-000008000000}" name="Entity Classification" dataDxfId="151"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="Entity Category" dataDxfId="150"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="Entity Location Description" dataDxfId="149"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="Drawing Number" dataDxfId="148"/>
+    <tableColumn id="154" xr3:uid="{00000000-0010-0000-0A00-00009A000000}" name="Number of PM Activities Specified" dataDxfId="147">
       <calculatedColumnFormula>COUNTIF([2]!OEMmaintenance[Entity Numbers],"*"&amp;[2]!AssetInfo[[#This Row],[Final Entity Number]]&amp;"*")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Blank by intention 2" dataDxfId="147"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0A00-000018000000}" name="OEM Business Name" dataDxfId="146"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0A00-000019000000}" name="Supplier (Complete Business Name)" dataDxfId="145"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0A00-00001A000000}" name="Supplier Phone Number" dataDxfId="144"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0A00-00001B000000}" name="Purchase Order/ Contract #" dataDxfId="143"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0A00-00001C000000}" name="Original Cost" dataDxfId="142"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0A00-00001D000000}" name="Model / Style / Catalog Number" dataDxfId="141"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0A00-00001E000000}" name="Serial Number" dataDxfId="140"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0A00-000022000000}" name="Pump?" dataDxfId="139"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0A00-000028000000}" name="Orientation" dataDxfId="7"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0A00-000023000000}" name="Variable Speed" dataDxfId="138"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0A00-000024000000}" name="Type" dataDxfId="137"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0A00-000027000000}" name="Max RPM" dataDxfId="3"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0A00-000025000000}" name="Rated Flow @ Max RPM [L/s]" dataDxfId="136"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0A00-000026000000}" name="Pump Head @ Rated Flow [m]" dataDxfId="135"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0A00-000029000000}" name="Submersible" dataDxfId="134"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0A00-00002A000000}" name="Sealed/Shielded Bearings Present" dataDxfId="133"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0A00-00002C000000}" name="Seal Type (Mech, Packing)" dataDxfId="132"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0A00-000037000000}" name="Motor?" dataDxfId="131"/>
-    <tableColumn id="31" xr3:uid="{498D8BBD-A792-43A5-81C4-385C2E52F30C}" name="Motor Type" dataDxfId="6"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0A00-00003A000000}" name="Horse Power2" dataDxfId="130"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0A00-00003B000000}" name="NEMA Frame" dataDxfId="129"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0A00-00003C000000}" name="NEMA Enclosure" dataDxfId="128"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0A00-00003D000000}" name="Sealed/Shielded Bearings Present2" dataDxfId="127"/>
-    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0A00-000042000000}" name="Voltage (V)" dataDxfId="126"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0A00-00004C000000}" name="Valve?" dataDxfId="125"/>
-    <tableColumn id="43" xr3:uid="{C9D3CBBE-53D1-4A8C-850A-D4E135C07F3E}" name="Valve Type" dataDxfId="5"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0A00-00004D000000}" name="Valve Size (in)" dataDxfId="124"/>
-    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0A00-00004E000000}" name="ANSI Class" dataDxfId="123"/>
-    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0A00-00004F000000}" name="Body Material" dataDxfId="122"/>
-    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0A00-000050000000}" name="Actuator Type" dataDxfId="121"/>
-    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0A00-000051000000}" name="Stem Sealing" dataDxfId="120"/>
-    <tableColumn id="97" xr3:uid="{00000000-0010-0000-0A00-000061000000}" name="Instrumentation?" dataDxfId="119"/>
-    <tableColumn id="98" xr3:uid="{00000000-0010-0000-0A00-000062000000}" name="Parameter Type" dataDxfId="118"/>
-    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0A00-000063000000}" name="Parameter UOM" dataDxfId="117"/>
-    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0A00-000064000000}" name="Calibration ranger lower limit in UOM" dataDxfId="116"/>
-    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0A00-000065000000}" name="Calibration ranger upper limit in UOM" dataDxfId="115"/>
-    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0A00-000066000000}" name="System Tolerance (in ± UOM)" dataDxfId="114"/>
-    <tableColumn id="106" xr3:uid="{00000000-0010-0000-0A00-00006A000000}" name="Breaker?" dataDxfId="113"/>
-    <tableColumn id="62" xr3:uid="{4DA7C9D2-7D28-4B3F-BF04-5D5D37E88468}" name="Breaker Type" dataDxfId="4"/>
-    <tableColumn id="107" xr3:uid="{00000000-0010-0000-0A00-00006B000000}" name="Max Continuous Voltage Rating (V)" dataDxfId="112"/>
-    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0A00-00006C000000}" name="Max Continuous Current Rating (A)" dataDxfId="111"/>
-    <tableColumn id="109" xr3:uid="{00000000-0010-0000-0A00-00006D000000}" name="Main Contactor Type" dataDxfId="110"/>
-    <tableColumn id="118" xr3:uid="{00000000-0010-0000-0A00-000076000000}" name="Starter?" dataDxfId="109"/>
-    <tableColumn id="119" xr3:uid="{00000000-0010-0000-0A00-000077000000}" name="Continuous Voltage Rating (V)" dataDxfId="108"/>
-    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0A00-000078000000}" name="Continuous Current Rating (A)" dataDxfId="107"/>
-    <tableColumn id="121" xr3:uid="{00000000-0010-0000-0A00-000079000000}" name="VFD Function Present" dataDxfId="106"/>
-    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0A00-00007A000000}" name="Soft Starting Function Present" dataDxfId="105"/>
-    <tableColumn id="123" xr3:uid="{00000000-0010-0000-0A00-00007B000000}" name="Main Contactor Type2" dataDxfId="104"/>
-    <tableColumn id="124" xr3:uid="{00000000-0010-0000-0A00-00007C000000}" name="Over-current Sensing Circuit Type" dataDxfId="103"/>
-    <tableColumn id="136" xr3:uid="{00000000-0010-0000-0A00-000088000000}" name="Transformer?" dataDxfId="102"/>
-    <tableColumn id="137" xr3:uid="{00000000-0010-0000-0A00-000089000000}" name="Primary Voltage (Centre Tap) (V)" dataDxfId="101"/>
-    <tableColumn id="138" xr3:uid="{00000000-0010-0000-0A00-00008A000000}" name="Secondary Voltage (V)" dataDxfId="100"/>
-    <tableColumn id="139" xr3:uid="{00000000-0010-0000-0A00-00008B000000}" name="Power Rating (@ max cooling) (kVA)" dataDxfId="99"/>
-    <tableColumn id="140" xr3:uid="{00000000-0010-0000-0A00-00008C000000}" name="Cooling Type" dataDxfId="98"/>
-    <tableColumn id="142" xr3:uid="{00000000-0010-0000-0A00-00008E000000}" name="Oil Filled _x000a_/ Dry Type" dataDxfId="97"/>
-    <tableColumn id="144" xr3:uid="{00000000-0010-0000-0A00-000090000000}" name="Sudden Pressure Relay Present" dataDxfId="96"/>
-    <tableColumn id="147" xr3:uid="{00000000-0010-0000-0A00-000093000000}" name="Online Gas Monitor Installed" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="HVAC Package Unit?" dataDxfId="94"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="CFM Rating" dataDxfId="93"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="Static Pressure Rating" dataDxfId="92"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="Heating Function Present" dataDxfId="91"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="Cooling Function Present" dataDxfId="90"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0A00-000011000000}" name="De-humidifcation Function Present" dataDxfId="89"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0A00-000012000000}" name="Maintainable Damper Present" dataDxfId="88"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0A00-000013000000}" name="Belts Present" dataDxfId="87"/>
-    <tableColumn id="11" xr3:uid="{1A321B10-223A-40D3-82F7-374E901D6357}" name="BLOWER?" dataDxfId="86"/>
-    <tableColumn id="20" xr3:uid="{FA9E842E-2B8E-4DEE-BEAA-9F7C65710D40}" name="Air Flow Rating" dataDxfId="85"/>
-    <tableColumn id="21" xr3:uid="{712AC1D7-444C-4BB2-8F7F-9E4D134F744C}" name="Static Pressure (PSI)" dataDxfId="84"/>
-    <tableColumn id="22" xr3:uid="{03830EF1-B26A-4FC8-8216-6F176472FFFF}" name="Drive Coupling" dataDxfId="83"/>
-    <tableColumn id="23" xr3:uid="{C508E5A2-ABB3-488B-969C-38F124B33814}" name="Sealed or Shielded Bearings Present" dataDxfId="82"/>
-    <tableColumn id="32" xr3:uid="{833DD4F0-0F0A-4B07-AEED-ADABF233CDFF}" name="Compressor?" dataDxfId="81"/>
-    <tableColumn id="45" xr3:uid="{A0401D13-8932-4E75-AA88-610F4EB86D44}" name="Rated Output (kPa)" dataDxfId="80"/>
-    <tableColumn id="46" xr3:uid="{1C5C7A64-4CDA-4C8B-962E-2183D93D667B}" name="Flow (SCMH)" dataDxfId="79"/>
-    <tableColumn id="47" xr3:uid="{0855A739-0E95-4E32-8F59-1671491E089A}" name="Drive Coupling2" dataDxfId="78"/>
-    <tableColumn id="48" xr3:uid="{801ACDCD-22F9-4EBD-AF2D-81193F65EBBD}" name="Sealed or Shielded Bearings Present2" dataDxfId="77"/>
-    <tableColumn id="50" xr3:uid="{E0682E2C-0509-455A-991F-D0FBB7970442}" name="Generator?" dataDxfId="76"/>
-    <tableColumn id="51" xr3:uid="{16A53155-D9BC-4BA8-9C60-38AD7706A88A}" name="Is Mobile" dataDxfId="75"/>
-    <tableColumn id="52" xr3:uid="{C8497A46-121B-44AE-8302-68229FABCB61}" name="Backup for Fire and Life Safety or Elevator" dataDxfId="74"/>
-    <tableColumn id="53" xr3:uid="{5A66C310-2367-445C-B3C5-53C0BFD8C5A6}" name="Power Rating (kW)" dataDxfId="73"/>
-    <tableColumn id="54" xr3:uid="{BFFC24B7-A213-417B-80D4-80093AE3BDEF}" name="Voltage Rating (V)" dataDxfId="72"/>
-    <tableColumn id="56" xr3:uid="{4BE6AAFD-3E45-41E4-A9D7-77BCF5B20FEE}" name="Type of Drive" dataDxfId="71"/>
-    <tableColumn id="57" xr3:uid="{427F4D23-9E72-405A-9483-9AB3BDC3F7BE}" name="Brushless" dataDxfId="70"/>
-    <tableColumn id="63" xr3:uid="{C42EA1A6-628E-4454-989B-C3C8CDB5CD05}" name="Test Load Electrical Connetor Present" dataDxfId="69"/>
-    <tableColumn id="64" xr3:uid="{E9488D46-C2BE-4F61-B74E-AA6DFED57998}" name="Drive Coupling3" dataDxfId="68"/>
-    <tableColumn id="65" xr3:uid="{CD29DC7C-AB97-4FC6-9BF5-2C97D3835AF0}" name="Sealed or Shielded Bearings Present3" dataDxfId="67"/>
-    <tableColumn id="68" xr3:uid="{977A06A6-864D-41C7-9F15-DD49EF9E51C2}" name="UPS?" dataDxfId="66"/>
-    <tableColumn id="69" xr3:uid="{012AEC62-3A0F-452B-A238-98932F4E75CA}" name="Battery Capacity (kWh)" dataDxfId="65"/>
-    <tableColumn id="70" xr3:uid="{6D7D5BA6-B59C-49B6-B768-F7330695527C}" name="Backup for Fire Life-safety Load or Control" dataDxfId="64"/>
-    <tableColumn id="71" xr3:uid="{0F546348-DB25-4FB5-827A-8420DD1ADBD5}" name="Output Voltage (V)" dataDxfId="63"/>
-    <tableColumn id="72" xr3:uid="{B79688A0-3718-4DB9-99FE-DADF016C7912}" name="Battery Type" dataDxfId="62"/>
-    <tableColumn id="73" xr3:uid="{2B6FE749-FFAE-43AC-87D4-C5924853BF82}" name="Physically Integrated with Charger" dataDxfId="61"/>
-    <tableColumn id="74" xr3:uid="{27211558-1258-4DD6-A2D2-570256AF1CFC}" name="Boiler?" dataDxfId="60"/>
-    <tableColumn id="75" xr3:uid="{6229575E-ED20-443F-8E9B-8246487F4FC9}" name="Energy Source" dataDxfId="59"/>
-    <tableColumn id="82" xr3:uid="{5A52390D-7110-482D-BC8F-FFB478107771}" name="Rated Heat Rate (kW)" dataDxfId="58"/>
-    <tableColumn id="83" xr3:uid="{F4C04083-370F-4501-A5CD-4D0CFD02B4CA}" name="Boiled Medium" dataDxfId="57"/>
-    <tableColumn id="84" xr3:uid="{54CB8387-959E-4989-AB52-30FF06D20D61}" name="Maximum Operating Pressure (psi)" dataDxfId="56"/>
-    <tableColumn id="85" xr3:uid="{7EBB0E9B-C1C3-4727-A7B7-6C114F34DD89}" name="Maximum Temperature (°C)" dataDxfId="55"/>
-    <tableColumn id="86" xr3:uid="{09B5AFE9-22D9-49CC-AB9A-4130DD8796A4}" name="Heating Surface Area (m2)" dataDxfId="54"/>
-    <tableColumn id="87" xr3:uid="{2565A203-51C7-4787-9523-D9718DC38CEB}" name="Capacity (L)" dataDxfId="53"/>
-    <tableColumn id="88" xr3:uid="{3BDB6B23-8E98-4AE1-AA45-1C2DE0A9860E}" name="TSSA CRN" dataDxfId="52"/>
-    <tableColumn id="89" xr3:uid="{6C5A8214-5C3D-45C1-B07C-A8ADAF31A348}" name="TSSA Pressure Vessel?" dataDxfId="51"/>
-    <tableColumn id="90" xr3:uid="{E277CB5A-1A32-415A-8628-0865487A06A0}" name="Capacity (L)2" dataDxfId="50"/>
-    <tableColumn id="91" xr3:uid="{EA80514F-0D50-4395-8A51-D7EDDE5720EA}" name="Contains Clear Water" dataDxfId="49"/>
-    <tableColumn id="92" xr3:uid="{32588E0A-C65D-4290-A8B4-2F7C19D47B71}" name="Contained Medium" dataDxfId="48"/>
-    <tableColumn id="93" xr3:uid="{EE239E8E-63CC-445F-A28C-76F0F69D3574}" name="Pressurized" dataDxfId="47"/>
-    <tableColumn id="94" xr3:uid="{82130211-CE92-4477-A29A-3339E141A46E}" name="Maximum Allowable Working Pressure" dataDxfId="46"/>
-    <tableColumn id="95" xr3:uid="{D0D1C457-9580-4348-809A-B3E9D35C281A}" name="TSSA CRN2" dataDxfId="45"/>
-    <tableColumn id="96" xr3:uid="{2086CB61-48A9-4624-AF6C-C37FA525CE54}" name="TSSA Pressure Piping?" dataDxfId="44"/>
-    <tableColumn id="103" xr3:uid="{1C44D71B-0E25-4433-A1A8-9878C446ADDA}" name="Maximum Pipe Size (in.)" dataDxfId="43"/>
-    <tableColumn id="104" xr3:uid="{B19BFAE4-B63C-48B2-AE5D-4996D45C94D0}" name="Maximum Allowable Working Pressure (kPa)" dataDxfId="42"/>
-    <tableColumn id="105" xr3:uid="{9F7C1725-2307-4BB1-92D0-A12DB245DC57}" name="Maximum Medium Temperature (°C)" dataDxfId="41"/>
-    <tableColumn id="110" xr3:uid="{1B0C2DA5-E19B-4C8F-A8AE-24AFD5C54EB8}" name="Special Application" dataDxfId="40"/>
-    <tableColumn id="111" xr3:uid="{5DB8332F-6090-4E4A-8EAB-EB897CB5B917}" name="TSSA CRN3" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Blank by intention 2" dataDxfId="146"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0A00-000018000000}" name="OEM Business Name" dataDxfId="145"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0A00-000019000000}" name="Supplier (Complete Business Name)" dataDxfId="144"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0A00-00001A000000}" name="Supplier Phone Number" dataDxfId="143"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0A00-00001B000000}" name="Purchase Order/ Contract #" dataDxfId="142"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0A00-00001C000000}" name="Original Cost" dataDxfId="141"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0A00-00001D000000}" name="Model / Style / Catalog Number" dataDxfId="140"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0A00-00001E000000}" name="Serial Number" dataDxfId="139"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0A00-000022000000}" name="Pump?" dataDxfId="138"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0A00-000028000000}" name="Orientation" dataDxfId="137"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0A00-000023000000}" name="Variable Speed" dataDxfId="136"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0A00-000024000000}" name="Type" dataDxfId="135"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0A00-000027000000}" name="Max RPM" dataDxfId="134"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0A00-000025000000}" name="Rated Flow @ Max RPM [L/s]" dataDxfId="133"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0A00-000026000000}" name="Pump Head @ Rated Flow [m]" dataDxfId="132"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0A00-000029000000}" name="Submersible" dataDxfId="131"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0A00-00002A000000}" name="Sealed/Shielded Bearings Present" dataDxfId="130"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0A00-00002C000000}" name="Seal Type (Mech, Packing)" dataDxfId="129"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0A00-000037000000}" name="Motor?" dataDxfId="128"/>
+    <tableColumn id="31" xr3:uid="{498D8BBD-A792-43A5-81C4-385C2E52F30C}" name="Motor Type" dataDxfId="127"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0A00-00003A000000}" name="Horse Power2" dataDxfId="126"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0A00-00003B000000}" name="NEMA Frame" dataDxfId="125"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0A00-00003C000000}" name="NEMA Enclosure" dataDxfId="124"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0A00-00003D000000}" name="Sealed/Shielded Bearings Present2" dataDxfId="123"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0A00-000042000000}" name="Voltage (V)" dataDxfId="122"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0A00-00004C000000}" name="Valve?" dataDxfId="121"/>
+    <tableColumn id="43" xr3:uid="{C9D3CBBE-53D1-4A8C-850A-D4E135C07F3E}" name="Valve Type" dataDxfId="120"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0A00-00004D000000}" name="Valve Size (in)" dataDxfId="119"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0A00-00004E000000}" name="ANSI Class" dataDxfId="118"/>
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0A00-00004F000000}" name="Body Material" dataDxfId="117"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0A00-000050000000}" name="Actuator Type" dataDxfId="116"/>
+    <tableColumn id="81" xr3:uid="{00000000-0010-0000-0A00-000051000000}" name="Stem Sealing" dataDxfId="115"/>
+    <tableColumn id="97" xr3:uid="{00000000-0010-0000-0A00-000061000000}" name="Instrumentation?" dataDxfId="114"/>
+    <tableColumn id="98" xr3:uid="{00000000-0010-0000-0A00-000062000000}" name="Parameter Type" dataDxfId="113"/>
+    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0A00-000063000000}" name="Parameter UOM" dataDxfId="112"/>
+    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0A00-000064000000}" name="Calibration ranger lower limit in UOM" dataDxfId="111"/>
+    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0A00-000065000000}" name="Calibration ranger upper limit in UOM" dataDxfId="110"/>
+    <tableColumn id="102" xr3:uid="{00000000-0010-0000-0A00-000066000000}" name="System Tolerance (in ± UOM)" dataDxfId="109"/>
+    <tableColumn id="106" xr3:uid="{00000000-0010-0000-0A00-00006A000000}" name="Breaker?" dataDxfId="108"/>
+    <tableColumn id="62" xr3:uid="{4DA7C9D2-7D28-4B3F-BF04-5D5D37E88468}" name="Breaker Type" dataDxfId="107"/>
+    <tableColumn id="107" xr3:uid="{00000000-0010-0000-0A00-00006B000000}" name="Max Continuous Voltage Rating (V)" dataDxfId="106"/>
+    <tableColumn id="108" xr3:uid="{00000000-0010-0000-0A00-00006C000000}" name="Max Continuous Current Rating (A)" dataDxfId="105"/>
+    <tableColumn id="109" xr3:uid="{00000000-0010-0000-0A00-00006D000000}" name="Main Contactor Type" dataDxfId="104"/>
+    <tableColumn id="118" xr3:uid="{00000000-0010-0000-0A00-000076000000}" name="Starter?" dataDxfId="103"/>
+    <tableColumn id="119" xr3:uid="{00000000-0010-0000-0A00-000077000000}" name="Continuous Voltage Rating (V)" dataDxfId="102"/>
+    <tableColumn id="120" xr3:uid="{00000000-0010-0000-0A00-000078000000}" name="Continuous Current Rating (A)" dataDxfId="101"/>
+    <tableColumn id="121" xr3:uid="{00000000-0010-0000-0A00-000079000000}" name="VFD Function Present" dataDxfId="100"/>
+    <tableColumn id="122" xr3:uid="{00000000-0010-0000-0A00-00007A000000}" name="Soft Starting Function Present" dataDxfId="99"/>
+    <tableColumn id="123" xr3:uid="{00000000-0010-0000-0A00-00007B000000}" name="Main Contactor Type2" dataDxfId="98"/>
+    <tableColumn id="124" xr3:uid="{00000000-0010-0000-0A00-00007C000000}" name="Over-current Sensing Circuit Type" dataDxfId="97"/>
+    <tableColumn id="136" xr3:uid="{00000000-0010-0000-0A00-000088000000}" name="Transformer?" dataDxfId="96"/>
+    <tableColumn id="137" xr3:uid="{00000000-0010-0000-0A00-000089000000}" name="Primary Voltage (Centre Tap) (V)" dataDxfId="95"/>
+    <tableColumn id="138" xr3:uid="{00000000-0010-0000-0A00-00008A000000}" name="Secondary Voltage (V)" dataDxfId="94"/>
+    <tableColumn id="139" xr3:uid="{00000000-0010-0000-0A00-00008B000000}" name="Power Rating (@ max cooling) (kVA)" dataDxfId="93"/>
+    <tableColumn id="140" xr3:uid="{00000000-0010-0000-0A00-00008C000000}" name="Cooling Type" dataDxfId="92"/>
+    <tableColumn id="142" xr3:uid="{00000000-0010-0000-0A00-00008E000000}" name="Oil Filled _x000a_/ Dry Type" dataDxfId="91"/>
+    <tableColumn id="144" xr3:uid="{00000000-0010-0000-0A00-000090000000}" name="Sudden Pressure Relay Present" dataDxfId="90"/>
+    <tableColumn id="147" xr3:uid="{00000000-0010-0000-0A00-000093000000}" name="Online Gas Monitor Installed" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="HVAC Package Unit?" dataDxfId="88"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="CFM Rating" dataDxfId="87"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="Static Pressure Rating" dataDxfId="86"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="Heating Function Present" dataDxfId="85"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="Cooling Function Present" dataDxfId="84"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0A00-000011000000}" name="De-humidifcation Function Present" dataDxfId="83"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0A00-000012000000}" name="Maintainable Damper Present" dataDxfId="82"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0A00-000013000000}" name="Belts Present" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{1A321B10-223A-40D3-82F7-374E901D6357}" name="BLOWER?" dataDxfId="80"/>
+    <tableColumn id="20" xr3:uid="{FA9E842E-2B8E-4DEE-BEAA-9F7C65710D40}" name="Air Flow Rating" dataDxfId="79"/>
+    <tableColumn id="21" xr3:uid="{712AC1D7-444C-4BB2-8F7F-9E4D134F744C}" name="Static Pressure (PSI)" dataDxfId="78"/>
+    <tableColumn id="22" xr3:uid="{03830EF1-B26A-4FC8-8216-6F176472FFFF}" name="Drive Coupling" dataDxfId="77"/>
+    <tableColumn id="23" xr3:uid="{C508E5A2-ABB3-488B-969C-38F124B33814}" name="Sealed or Shielded Bearings Present" dataDxfId="76"/>
+    <tableColumn id="32" xr3:uid="{833DD4F0-0F0A-4B07-AEED-ADABF233CDFF}" name="Compressor?" dataDxfId="75"/>
+    <tableColumn id="45" xr3:uid="{A0401D13-8932-4E75-AA88-610F4EB86D44}" name="Rated Output (kPa)" dataDxfId="74"/>
+    <tableColumn id="46" xr3:uid="{1C5C7A64-4CDA-4C8B-962E-2183D93D667B}" name="Flow (SCMH)" dataDxfId="73"/>
+    <tableColumn id="47" xr3:uid="{0855A739-0E95-4E32-8F59-1671491E089A}" name="Drive Coupling2" dataDxfId="72"/>
+    <tableColumn id="48" xr3:uid="{801ACDCD-22F9-4EBD-AF2D-81193F65EBBD}" name="Sealed or Shielded Bearings Present2" dataDxfId="71"/>
+    <tableColumn id="50" xr3:uid="{E0682E2C-0509-455A-991F-D0FBB7970442}" name="Generator?" dataDxfId="70"/>
+    <tableColumn id="51" xr3:uid="{16A53155-D9BC-4BA8-9C60-38AD7706A88A}" name="Is Mobile" dataDxfId="69"/>
+    <tableColumn id="52" xr3:uid="{C8497A46-121B-44AE-8302-68229FABCB61}" name="Backup for Fire and Life Safety or Elevator" dataDxfId="68"/>
+    <tableColumn id="53" xr3:uid="{5A66C310-2367-445C-B3C5-53C0BFD8C5A6}" name="Power Rating (kW)" dataDxfId="67"/>
+    <tableColumn id="54" xr3:uid="{BFFC24B7-A213-417B-80D4-80093AE3BDEF}" name="Voltage Rating (V)" dataDxfId="66"/>
+    <tableColumn id="56" xr3:uid="{4BE6AAFD-3E45-41E4-A9D7-77BCF5B20FEE}" name="Type of Drive" dataDxfId="65"/>
+    <tableColumn id="57" xr3:uid="{427F4D23-9E72-405A-9483-9AB3BDC3F7BE}" name="Brushless" dataDxfId="64"/>
+    <tableColumn id="63" xr3:uid="{C42EA1A6-628E-4454-989B-C3C8CDB5CD05}" name="Test Load Electrical Connetor Present" dataDxfId="63"/>
+    <tableColumn id="64" xr3:uid="{E9488D46-C2BE-4F61-B74E-AA6DFED57998}" name="Drive Coupling3" dataDxfId="62"/>
+    <tableColumn id="65" xr3:uid="{CD29DC7C-AB97-4FC6-9BF5-2C97D3835AF0}" name="Sealed or Shielded Bearings Present3" dataDxfId="61"/>
+    <tableColumn id="68" xr3:uid="{977A06A6-864D-41C7-9F15-DD49EF9E51C2}" name="UPS?" dataDxfId="60"/>
+    <tableColumn id="69" xr3:uid="{012AEC62-3A0F-452B-A238-98932F4E75CA}" name="Battery Capacity (kWh)" dataDxfId="59"/>
+    <tableColumn id="70" xr3:uid="{6D7D5BA6-B59C-49B6-B768-F7330695527C}" name="Backup for Fire Life-safety Load or Control" dataDxfId="58"/>
+    <tableColumn id="71" xr3:uid="{0F546348-DB25-4FB5-827A-8420DD1ADBD5}" name="Output Voltage (V)" dataDxfId="57"/>
+    <tableColumn id="72" xr3:uid="{B79688A0-3718-4DB9-99FE-DADF016C7912}" name="Battery Type" dataDxfId="56"/>
+    <tableColumn id="73" xr3:uid="{2B6FE749-FFAE-43AC-87D4-C5924853BF82}" name="Physically Integrated with Charger" dataDxfId="55"/>
+    <tableColumn id="74" xr3:uid="{27211558-1258-4DD6-A2D2-570256AF1CFC}" name="Boiler?" dataDxfId="54"/>
+    <tableColumn id="75" xr3:uid="{6229575E-ED20-443F-8E9B-8246487F4FC9}" name="Energy Source" dataDxfId="53"/>
+    <tableColumn id="82" xr3:uid="{5A52390D-7110-482D-BC8F-FFB478107771}" name="Rated Heat Rate (kW)" dataDxfId="52"/>
+    <tableColumn id="83" xr3:uid="{F4C04083-370F-4501-A5CD-4D0CFD02B4CA}" name="Boiled Medium" dataDxfId="51"/>
+    <tableColumn id="84" xr3:uid="{54CB8387-959E-4989-AB52-30FF06D20D61}" name="Maximum Operating Pressure (psi)" dataDxfId="50"/>
+    <tableColumn id="85" xr3:uid="{7EBB0E9B-C1C3-4727-A7B7-6C114F34DD89}" name="Maximum Temperature (°C)" dataDxfId="49"/>
+    <tableColumn id="86" xr3:uid="{09B5AFE9-22D9-49CC-AB9A-4130DD8796A4}" name="Heating Surface Area (m2)" dataDxfId="48"/>
+    <tableColumn id="87" xr3:uid="{2565A203-51C7-4787-9523-D9718DC38CEB}" name="Capacity (L)" dataDxfId="47"/>
+    <tableColumn id="88" xr3:uid="{3BDB6B23-8E98-4AE1-AA45-1C2DE0A9860E}" name="TSSA CRN" dataDxfId="46"/>
+    <tableColumn id="89" xr3:uid="{6C5A8214-5C3D-45C1-B07C-A8ADAF31A348}" name="TSSA Pressure Vessel?" dataDxfId="45"/>
+    <tableColumn id="90" xr3:uid="{E277CB5A-1A32-415A-8628-0865487A06A0}" name="Capacity (L)2" dataDxfId="44"/>
+    <tableColumn id="91" xr3:uid="{EA80514F-0D50-4395-8A51-D7EDDE5720EA}" name="Contains Clear Water" dataDxfId="43"/>
+    <tableColumn id="92" xr3:uid="{32588E0A-C65D-4290-A8B4-2F7C19D47B71}" name="Contained Medium" dataDxfId="42"/>
+    <tableColumn id="93" xr3:uid="{EE239E8E-63CC-445F-A28C-76F0F69D3574}" name="Pressurized" dataDxfId="41"/>
+    <tableColumn id="94" xr3:uid="{82130211-CE92-4477-A29A-3339E141A46E}" name="Maximum Allowable Working Pressure" dataDxfId="40"/>
+    <tableColumn id="95" xr3:uid="{D0D1C457-9580-4348-809A-B3E9D35C281A}" name="TSSA CRN2" dataDxfId="39"/>
+    <tableColumn id="96" xr3:uid="{2086CB61-48A9-4624-AF6C-C37FA525CE54}" name="TSSA Pressure Piping?" dataDxfId="38"/>
+    <tableColumn id="103" xr3:uid="{1C44D71B-0E25-4433-A1A8-9878C446ADDA}" name="Maximum Pipe Size (in.)" dataDxfId="37"/>
+    <tableColumn id="104" xr3:uid="{B19BFAE4-B63C-48B2-AE5D-4996D45C94D0}" name="Maximum Allowable Working Pressure (kPa)" dataDxfId="36"/>
+    <tableColumn id="105" xr3:uid="{9F7C1725-2307-4BB1-92D0-A12DB245DC57}" name="Maximum Medium Temperature (°C)" dataDxfId="35"/>
+    <tableColumn id="110" xr3:uid="{1B0C2DA5-E19B-4C8F-A8AE-24AFD5C54EB8}" name="Special Application" dataDxfId="34"/>
+    <tableColumn id="111" xr3:uid="{5DB8332F-6090-4E4A-8EAB-EB897CB5B917}" name="TSSA CRN3" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="68" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="OEMmaintenance" displayName="OEMmaintenance" ref="A12:G14" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="68" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="OEMmaintenance" displayName="OEMmaintenance" ref="A12:G14" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
   <autoFilter ref="A12:G14" xr:uid="{00000000-0009-0000-0100-000044000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Entity Numbers" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Entity Maintenance Activity #" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Maintenance Activity Name" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Detailed Maintenace Activity Procedure" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Activity Trades Requirements" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Estimated Time (hr)" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Activity Frequency" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Entity Numbers" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Entity Maintenance Activity #" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Maintenance Activity Name" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Detailed Maintenace Activity Procedure" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Activity Trades Requirements" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Estimated Time (hr)" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="Activity Frequency" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11151,32 +11159,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table5" displayName="Table5" ref="B2:F3" insertRow="1" totalsRowShown="0">
   <autoFilter ref="B2:F3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Comment Number" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Commenter" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Comment for" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Date" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Comment Text" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Comment Number" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Commenter" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Comment for" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Date" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Comment Text" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="OEM_Maintenance_Unfurled" displayName="OEM_Maintenance_Unfurled" ref="A5:L16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="OEM_Maintenance_Unfurled" displayName="OEM_Maintenance_Unfurled" ref="A5:L16" tableType="queryTable" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A5:L16" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="12">
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0D00-000019000000}" uniqueName="25" name="Assets Sheet Entity" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0D00-00001A000000}" uniqueName="26" name="OEM Sheet Entity" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0D00-00001B000000}" uniqueName="27" name="Entity Name" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0D00-00001C000000}" uniqueName="28" name="Major Process Start-Up" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0D00-00001D000000}" uniqueName="29" name="Entity Classification" queryTableFieldId="5" dataDxfId="16"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0D00-00001E000000}" uniqueName="30" name="Entity Category" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0D00-00001F000000}" uniqueName="31" name="Entity Maintenance Activity #" queryTableFieldId="7" dataDxfId="14"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0D00-000020000000}" uniqueName="32" name="Maintenance Activity Name" queryTableFieldId="8" dataDxfId="13"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0D00-000021000000}" uniqueName="33" name="Detailed Maintenace Activity Procedure" queryTableFieldId="9" dataDxfId="12"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0D00-000022000000}" uniqueName="34" name="Activity Trades Requirements" queryTableFieldId="10" dataDxfId="11"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0D00-000023000000}" uniqueName="35" name="Estimated Time (hr)" queryTableFieldId="11" dataDxfId="10"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0D00-000024000000}" uniqueName="36" name="Activity Frequency" queryTableFieldId="12" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0D00-000019000000}" uniqueName="25" name="Assets Sheet Entity" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0D00-00001A000000}" uniqueName="26" name="OEM Sheet Entity" queryTableFieldId="2" dataDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0D00-00001B000000}" uniqueName="27" name="Entity Name" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0D00-00001C000000}" uniqueName="28" name="Major Process Start-Up" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0D00-00001D000000}" uniqueName="29" name="Entity Classification" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0D00-00001E000000}" uniqueName="30" name="Entity Category" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0D00-00001F000000}" uniqueName="31" name="Entity Maintenance Activity #" queryTableFieldId="7" dataDxfId="8"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0D00-000020000000}" uniqueName="32" name="Maintenance Activity Name" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0D00-000021000000}" uniqueName="33" name="Detailed Maintenace Activity Procedure" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0D00-000022000000}" uniqueName="34" name="Activity Trades Requirements" queryTableFieldId="10" dataDxfId="5"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0D00-000023000000}" uniqueName="35" name="Estimated Time (hr)" queryTableFieldId="11" dataDxfId="4"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0D00-000024000000}" uniqueName="36" name="Activity Frequency" queryTableFieldId="12" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleQueryPreview" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16166,20 +16174,21 @@
   </sheetPr>
   <dimension ref="A1:EC409"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG32" sqref="AG32"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.5703125" style="21" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="5" width="25.28515625" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="31.7109375" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="24" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="8.85546875" style="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="25.28515625" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="20.42578125" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="25.42578125" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="24" style="21" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.85546875" style="21" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="15.42578125" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="21.5703125" style="21" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -16279,7 +16288,7 @@
       <c r="AI1" s="87" t="s">
         <v>928</v>
       </c>
-      <c r="AJ1" s="180"/>
+      <c r="AJ1" s="178"/>
       <c r="AK1" s="86"/>
       <c r="AL1" s="86"/>
       <c r="AM1" s="86"/>
@@ -16288,7 +16297,7 @@
       <c r="AP1" s="88" t="s">
         <v>928</v>
       </c>
-      <c r="AQ1" s="182"/>
+      <c r="AQ1" s="180"/>
       <c r="AR1" s="86"/>
       <c r="AS1" s="86"/>
       <c r="AT1" s="86"/>
@@ -16338,32 +16347,32 @@
       <c r="CB1" s="84"/>
       <c r="CC1" s="84"/>
       <c r="CD1" s="84"/>
-      <c r="CE1" s="179" t="s">
+      <c r="CE1" s="177" t="s">
         <v>928</v>
       </c>
       <c r="CF1" s="84"/>
       <c r="CG1" s="84"/>
       <c r="CH1" s="84"/>
       <c r="CI1" s="84"/>
-      <c r="CJ1" s="178" t="s">
+      <c r="CJ1" s="176" t="s">
         <v>928</v>
       </c>
-      <c r="CO1" s="177" t="s">
+      <c r="CO1" s="175" t="s">
         <v>928</v>
       </c>
-      <c r="CY1" s="176" t="s">
+      <c r="CY1" s="174" t="s">
         <v>928</v>
       </c>
-      <c r="DE1" s="175" t="s">
+      <c r="DE1" s="173" t="s">
         <v>928</v>
       </c>
-      <c r="DN1" s="174" t="s">
+      <c r="DN1" s="172" t="s">
         <v>928</v>
       </c>
-      <c r="DU1" s="173" t="s">
+      <c r="DU1" s="171" t="s">
         <v>928</v>
       </c>
-      <c r="EA1" s="172" t="s">
+      <c r="EA1" s="170" t="s">
         <v>928</v>
       </c>
     </row>
@@ -17069,7 +17078,7 @@
       <c r="EB5"/>
       <c r="EC5"/>
     </row>
-    <row r="6" spans="1:133" s="24" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:133" s="24" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="27" t="s">
         <v>930</v>
@@ -17296,7 +17305,7 @@
       <c r="EB6"/>
       <c r="EC6"/>
     </row>
-    <row r="7" spans="1:133" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:133" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
       <c r="B7" s="28" t="s">
         <v>1002</v>
@@ -17523,7 +17532,7 @@
       <c r="EB7"/>
       <c r="EC7"/>
     </row>
-    <row r="8" spans="1:133" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:133" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
       <c r="C8" s="31"/>
@@ -17656,7 +17665,7 @@
       <c r="EB8"/>
       <c r="EC8"/>
     </row>
-    <row r="9" spans="1:133" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:133" s="30" customFormat="1" ht="39" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="31"/>
@@ -17876,7 +17885,7 @@
       <c r="AI11" s="115" t="s">
         <v>271</v>
       </c>
-      <c r="AJ11" s="181"/>
+      <c r="AJ11" s="179"/>
       <c r="AK11" s="116"/>
       <c r="AL11" s="116"/>
       <c r="AM11" s="116"/>
@@ -17885,7 +17894,7 @@
       <c r="AP11" s="117" t="s">
         <v>1071</v>
       </c>
-      <c r="AQ11" s="183"/>
+      <c r="AQ11" s="181"/>
       <c r="AR11" s="118"/>
       <c r="AS11" s="118"/>
       <c r="AT11" s="118"/>
@@ -17902,7 +17911,7 @@
       <c r="BC11" s="121" t="s">
         <v>1073</v>
       </c>
-      <c r="BD11" s="187"/>
+      <c r="BD11" s="185"/>
       <c r="BE11" s="122"/>
       <c r="BF11" s="122"/>
       <c r="BG11" s="122"/>
@@ -17925,124 +17934,126 @@
       <c r="BT11" s="126"/>
       <c r="BU11" s="126"/>
       <c r="BV11" s="126"/>
-      <c r="BW11" s="156" t="s">
+      <c r="BW11" s="154" t="s">
         <v>240</v>
       </c>
-      <c r="BX11" s="157"/>
-      <c r="BY11" s="157"/>
-      <c r="BZ11" s="157"/>
-      <c r="CA11" s="157"/>
-      <c r="CB11" s="157"/>
-      <c r="CC11" s="157"/>
-      <c r="CD11" s="157"/>
-      <c r="CE11" s="158" t="s">
+      <c r="BX11" s="155"/>
+      <c r="BY11" s="155"/>
+      <c r="BZ11" s="155"/>
+      <c r="CA11" s="155"/>
+      <c r="CB11" s="155"/>
+      <c r="CC11" s="155"/>
+      <c r="CD11" s="155"/>
+      <c r="CE11" s="156" t="s">
         <v>1195</v>
       </c>
-      <c r="CF11" s="159"/>
-      <c r="CG11" s="159"/>
-      <c r="CH11" s="159"/>
-      <c r="CI11" s="159"/>
-      <c r="CJ11" s="160" t="s">
+      <c r="CF11" s="157"/>
+      <c r="CG11" s="157"/>
+      <c r="CH11" s="157"/>
+      <c r="CI11" s="157"/>
+      <c r="CJ11" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="CK11" s="161"/>
-      <c r="CL11" s="161"/>
-      <c r="CM11" s="161"/>
-      <c r="CN11" s="161"/>
-      <c r="CO11" s="162" t="s">
+      <c r="CK11" s="159"/>
+      <c r="CL11" s="159"/>
+      <c r="CM11" s="159"/>
+      <c r="CN11" s="159"/>
+      <c r="CO11" s="160" t="s">
         <v>228</v>
       </c>
-      <c r="CP11" s="163"/>
-      <c r="CQ11" s="163"/>
-      <c r="CR11" s="163"/>
-      <c r="CS11" s="163"/>
-      <c r="CT11" s="163"/>
-      <c r="CU11" s="163"/>
-      <c r="CV11" s="163"/>
-      <c r="CW11" s="163"/>
-      <c r="CX11" s="163"/>
-      <c r="CY11" s="164" t="s">
+      <c r="CP11" s="161"/>
+      <c r="CQ11" s="161"/>
+      <c r="CR11" s="161"/>
+      <c r="CS11" s="161"/>
+      <c r="CT11" s="161"/>
+      <c r="CU11" s="161"/>
+      <c r="CV11" s="161"/>
+      <c r="CW11" s="161"/>
+      <c r="CX11" s="161"/>
+      <c r="CY11" s="162" t="s">
         <v>392</v>
       </c>
-      <c r="CZ11" s="165"/>
-      <c r="DA11" s="165"/>
-      <c r="DB11" s="165"/>
-      <c r="DC11" s="165"/>
-      <c r="DD11" s="165"/>
-      <c r="DE11" s="166" t="s">
+      <c r="CZ11" s="163"/>
+      <c r="DA11" s="163"/>
+      <c r="DB11" s="163"/>
+      <c r="DC11" s="163"/>
+      <c r="DD11" s="163"/>
+      <c r="DE11" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="DF11" s="167"/>
-      <c r="DG11" s="167"/>
-      <c r="DH11" s="167"/>
-      <c r="DI11" s="167"/>
-      <c r="DJ11" s="167"/>
-      <c r="DK11" s="167"/>
-      <c r="DL11" s="167"/>
-      <c r="DM11" s="167"/>
-      <c r="DN11" s="168" t="s">
+      <c r="DF11" s="165"/>
+      <c r="DG11" s="165"/>
+      <c r="DH11" s="165"/>
+      <c r="DI11" s="165"/>
+      <c r="DJ11" s="165"/>
+      <c r="DK11" s="165"/>
+      <c r="DL11" s="165"/>
+      <c r="DM11" s="165"/>
+      <c r="DN11" s="166" t="s">
         <v>1229</v>
       </c>
-      <c r="DO11" s="169"/>
-      <c r="DP11" s="169"/>
-      <c r="DQ11" s="169"/>
-      <c r="DR11" s="169"/>
-      <c r="DS11" s="169"/>
-      <c r="DT11" s="169"/>
-      <c r="DU11" s="170" t="s">
+      <c r="DO11" s="167"/>
+      <c r="DP11" s="167"/>
+      <c r="DQ11" s="167"/>
+      <c r="DR11" s="167"/>
+      <c r="DS11" s="167"/>
+      <c r="DT11" s="167"/>
+      <c r="DU11" s="168" t="s">
         <v>1236</v>
       </c>
-      <c r="DV11" s="171"/>
-      <c r="DW11" s="171"/>
-      <c r="DX11" s="171"/>
-      <c r="DY11" s="171"/>
-      <c r="DZ11" s="171"/>
+      <c r="DV11" s="169"/>
+      <c r="DW11" s="169"/>
+      <c r="DX11" s="169"/>
+      <c r="DY11" s="169"/>
+      <c r="DZ11" s="169"/>
       <c r="EA11"/>
       <c r="EB11"/>
       <c r="EC11"/>
     </row>
     <row r="12" spans="1:133" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="184" t="s">
+      <c r="A12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="B12" s="184" t="s">
+      <c r="B12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="C12" s="184" t="s">
+      <c r="C12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="D12" s="184" t="s">
+      <c r="D12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184" t="s">
+      <c r="E12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="G12" s="184" t="s">
+      <c r="F12" s="182" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="H12" s="63" t="s">
         <v>1074</v>
       </c>
-      <c r="I12" s="184" t="s">
+      <c r="I12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="J12" s="184" t="s">
+      <c r="J12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="K12" s="184" t="s">
+      <c r="K12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="L12" s="184" t="s">
+      <c r="L12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="M12" s="184" t="s">
+      <c r="M12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="N12" s="184" t="s">
+      <c r="N12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="O12" s="184" t="s">
+      <c r="O12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="P12" s="81" t="s">
@@ -18070,13 +18081,13 @@
       <c r="X12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="Y12" s="184" t="s">
+      <c r="Y12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="Z12" s="184" t="s">
+      <c r="Z12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="AA12" s="184" t="s">
+      <c r="AA12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="AB12" s="64" t="s">
@@ -18100,7 +18111,7 @@
       <c r="AH12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="AI12" s="184" t="s">
+      <c r="AI12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="AJ12" s="64" t="s">
@@ -18121,7 +18132,7 @@
       <c r="AO12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="AP12" s="184" t="s">
+      <c r="AP12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="AQ12" s="64" t="s">
@@ -18142,7 +18153,7 @@
       <c r="AV12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="AW12" s="184" t="s">
+      <c r="AW12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="AX12" s="64" t="s">
@@ -18160,7 +18171,7 @@
       <c r="BB12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="BC12" s="184" t="s">
+      <c r="BC12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="BD12" s="64" t="s">
@@ -18175,7 +18186,7 @@
       <c r="BG12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="BH12" s="184" t="s">
+      <c r="BH12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="BI12" s="64" t="s">
@@ -18196,7 +18207,7 @@
       <c r="BN12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="BO12" s="184" t="s">
+      <c r="BO12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="BP12" s="64" t="s">
@@ -18220,7 +18231,7 @@
       <c r="BV12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="BW12" s="184" t="s">
+      <c r="BW12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="BX12" s="64" t="s">
@@ -18244,7 +18255,7 @@
       <c r="CD12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="CE12" s="184" t="s">
+      <c r="CE12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="CF12" s="64" t="s">
@@ -18259,7 +18270,7 @@
       <c r="CI12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="CJ12" s="184" t="s">
+      <c r="CJ12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="CK12" s="64" t="s">
@@ -18274,13 +18285,13 @@
       <c r="CN12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="CO12" s="184" t="s">
+      <c r="CO12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="CP12" s="184" t="s">
+      <c r="CP12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="CQ12" s="184" t="s">
+      <c r="CQ12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="CR12" s="64" t="s">
@@ -18304,13 +18315,13 @@
       <c r="CX12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="CY12" s="184" t="s">
+      <c r="CY12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="CZ12" s="184" t="s">
+      <c r="CZ12" s="182" t="s">
         <v>1074</v>
       </c>
-      <c r="DA12" s="184" t="s">
+      <c r="DA12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="DB12" s="64" t="s">
@@ -18322,7 +18333,7 @@
       <c r="DD12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="DE12" s="184" t="s">
+      <c r="DE12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="DF12" s="64" t="s">
@@ -18349,7 +18360,7 @@
       <c r="DM12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="DN12" s="184" t="s">
+      <c r="DN12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="DO12" s="64" t="s">
@@ -18370,7 +18381,7 @@
       <c r="DT12" s="64" t="s">
         <v>1076</v>
       </c>
-      <c r="DU12" s="184" t="s">
+      <c r="DU12" s="182" t="s">
         <v>1074</v>
       </c>
       <c r="EA12"/>
@@ -18378,394 +18389,394 @@
       <c r="EC12"/>
     </row>
     <row r="13" spans="1:133" s="26" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="186" t="s">
+      <c r="A13" s="184" t="s">
         <v>1244</v>
       </c>
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="184" t="s">
         <v>1077</v>
       </c>
-      <c r="C13" s="186" t="s">
+      <c r="C13" s="184" t="s">
         <v>1078</v>
       </c>
-      <c r="D13" s="186" t="s">
+      <c r="D13" s="184" t="s">
         <v>1079</v>
       </c>
-      <c r="E13" s="186" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F13" s="186" t="s">
+      <c r="E13" s="184" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F13" s="184" t="s">
         <v>933</v>
       </c>
-      <c r="G13" s="186" t="s">
+      <c r="G13" s="184" t="s">
         <v>1081</v>
       </c>
-      <c r="H13" s="154" t="s">
+      <c r="H13" s="152" t="s">
         <v>1082</v>
       </c>
-      <c r="I13" s="186" t="s">
+      <c r="I13" s="184" t="s">
         <v>934</v>
       </c>
-      <c r="J13" s="186" t="s">
+      <c r="J13" s="184" t="s">
         <v>1083</v>
       </c>
-      <c r="K13" s="186" t="s">
+      <c r="K13" s="184" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="186" t="s">
+      <c r="L13" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="186" t="s">
+      <c r="M13" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="186" t="s">
+      <c r="N13" s="184" t="s">
         <v>935</v>
       </c>
-      <c r="O13" s="186" t="s">
+      <c r="O13" s="184" t="s">
         <v>936</v>
       </c>
-      <c r="P13" s="155" t="s">
+      <c r="P13" s="153" t="s">
         <v>1084</v>
       </c>
-      <c r="Q13" s="154" t="s">
+      <c r="Q13" s="152" t="s">
         <v>1085</v>
       </c>
-      <c r="R13" s="153" t="s">
+      <c r="R13" s="151" t="s">
         <v>1086</v>
       </c>
-      <c r="S13" s="153" t="s">
+      <c r="S13" s="151" t="s">
         <v>938</v>
       </c>
-      <c r="T13" s="153" t="s">
+      <c r="T13" s="151" t="s">
         <v>1001</v>
       </c>
-      <c r="U13" s="153" t="s">
+      <c r="U13" s="151" t="s">
         <v>939</v>
       </c>
-      <c r="V13" s="153" t="s">
+      <c r="V13" s="151" t="s">
         <v>940</v>
       </c>
-      <c r="W13" s="153" t="s">
+      <c r="W13" s="151" t="s">
         <v>1252</v>
       </c>
-      <c r="X13" s="153" t="s">
+      <c r="X13" s="151" t="s">
         <v>942</v>
       </c>
-      <c r="Y13" s="185" t="s">
+      <c r="Y13" s="183" t="s">
         <v>1087</v>
       </c>
-      <c r="Z13" s="185" t="s">
+      <c r="Z13" s="183" t="s">
         <v>1160</v>
       </c>
-      <c r="AA13" s="185" t="s">
+      <c r="AA13" s="183" t="s">
         <v>1159</v>
       </c>
-      <c r="AB13" s="153" t="s">
+      <c r="AB13" s="151" t="s">
         <v>967</v>
       </c>
-      <c r="AC13" s="153" t="s">
+      <c r="AC13" s="151" t="s">
         <v>1253</v>
       </c>
-      <c r="AD13" s="153" t="s">
+      <c r="AD13" s="151" t="s">
         <v>1254</v>
       </c>
-      <c r="AE13" s="153" t="s">
+      <c r="AE13" s="151" t="s">
         <v>1255</v>
       </c>
-      <c r="AF13" s="153" t="s">
+      <c r="AF13" s="151" t="s">
         <v>1161</v>
       </c>
-      <c r="AG13" s="153" t="s">
+      <c r="AG13" s="151" t="s">
         <v>1188</v>
       </c>
-      <c r="AH13" s="153" t="s">
+      <c r="AH13" s="151" t="s">
         <v>948</v>
       </c>
-      <c r="AI13" s="186" t="s">
+      <c r="AI13" s="184" t="s">
         <v>1088</v>
       </c>
-      <c r="AJ13" s="153" t="s">
+      <c r="AJ13" s="151" t="s">
         <v>1249</v>
       </c>
-      <c r="AK13" s="153" t="s">
+      <c r="AK13" s="151" t="s">
         <v>1248</v>
       </c>
-      <c r="AL13" s="153" t="s">
+      <c r="AL13" s="151" t="s">
         <v>1162</v>
       </c>
-      <c r="AM13" s="153" t="s">
+      <c r="AM13" s="151" t="s">
         <v>1163</v>
       </c>
-      <c r="AN13" s="153" t="s">
+      <c r="AN13" s="151" t="s">
         <v>1189</v>
       </c>
-      <c r="AO13" s="153" t="s">
+      <c r="AO13" s="151" t="s">
         <v>1190</v>
       </c>
-      <c r="AP13" s="186" t="s">
+      <c r="AP13" s="184" t="s">
         <v>1089</v>
       </c>
-      <c r="AQ13" s="153" t="s">
+      <c r="AQ13" s="151" t="s">
         <v>958</v>
       </c>
-      <c r="AR13" s="153" t="s">
+      <c r="AR13" s="151" t="s">
         <v>1164</v>
       </c>
-      <c r="AS13" s="153" t="s">
+      <c r="AS13" s="151" t="s">
         <v>1165</v>
       </c>
-      <c r="AT13" s="153" t="s">
+      <c r="AT13" s="151" t="s">
         <v>1166</v>
       </c>
-      <c r="AU13" s="153" t="s">
+      <c r="AU13" s="151" t="s">
         <v>1167</v>
       </c>
-      <c r="AV13" s="153" t="s">
+      <c r="AV13" s="151" t="s">
         <v>1168</v>
       </c>
-      <c r="AW13" s="186" t="s">
+      <c r="AW13" s="184" t="s">
         <v>1090</v>
       </c>
-      <c r="AX13" s="153" t="s">
+      <c r="AX13" s="151" t="s">
         <v>1169</v>
       </c>
-      <c r="AY13" s="153" t="s">
+      <c r="AY13" s="151" t="s">
         <v>1170</v>
       </c>
-      <c r="AZ13" s="153" t="s">
+      <c r="AZ13" s="151" t="s">
         <v>1171</v>
       </c>
-      <c r="BA13" s="153" t="s">
+      <c r="BA13" s="151" t="s">
         <v>1172</v>
       </c>
-      <c r="BB13" s="153" t="s">
+      <c r="BB13" s="151" t="s">
         <v>1242</v>
       </c>
-      <c r="BC13" s="186" t="s">
+      <c r="BC13" s="184" t="s">
         <v>1091</v>
       </c>
-      <c r="BD13" s="153" t="s">
+      <c r="BD13" s="151" t="s">
         <v>1256</v>
       </c>
-      <c r="BE13" s="153" t="s">
+      <c r="BE13" s="151" t="s">
         <v>1174</v>
       </c>
-      <c r="BF13" s="153" t="s">
+      <c r="BF13" s="151" t="s">
         <v>1173</v>
       </c>
-      <c r="BG13" s="153" t="s">
+      <c r="BG13" s="151" t="s">
         <v>1175</v>
       </c>
-      <c r="BH13" s="186" t="s">
+      <c r="BH13" s="184" t="s">
         <v>1092</v>
       </c>
-      <c r="BI13" s="153" t="s">
+      <c r="BI13" s="151" t="s">
         <v>1176</v>
       </c>
-      <c r="BJ13" s="153" t="s">
+      <c r="BJ13" s="151" t="s">
         <v>1177</v>
       </c>
-      <c r="BK13" s="153" t="s">
+      <c r="BK13" s="151" t="s">
         <v>1191</v>
       </c>
-      <c r="BL13" s="153" t="s">
+      <c r="BL13" s="151" t="s">
         <v>1192</v>
       </c>
-      <c r="BM13" s="153" t="s">
+      <c r="BM13" s="151" t="s">
         <v>1178</v>
       </c>
-      <c r="BN13" s="153" t="s">
+      <c r="BN13" s="151" t="s">
         <v>1179</v>
       </c>
-      <c r="BO13" s="186" t="s">
+      <c r="BO13" s="184" t="s">
         <v>1093</v>
       </c>
-      <c r="BP13" s="153" t="s">
+      <c r="BP13" s="151" t="s">
         <v>1180</v>
       </c>
-      <c r="BQ13" s="153" t="s">
+      <c r="BQ13" s="151" t="s">
         <v>1181</v>
       </c>
-      <c r="BR13" s="153" t="s">
+      <c r="BR13" s="151" t="s">
         <v>1182</v>
       </c>
-      <c r="BS13" s="153" t="s">
+      <c r="BS13" s="151" t="s">
         <v>977</v>
       </c>
-      <c r="BT13" s="153" t="s">
+      <c r="BT13" s="151" t="s">
         <v>978</v>
       </c>
-      <c r="BU13" s="153" t="s">
+      <c r="BU13" s="151" t="s">
         <v>1193</v>
       </c>
-      <c r="BV13" s="153" t="s">
+      <c r="BV13" s="151" t="s">
         <v>980</v>
       </c>
-      <c r="BW13" s="186" t="s">
+      <c r="BW13" s="184" t="s">
         <v>1257</v>
       </c>
-      <c r="BX13" s="153" t="s">
+      <c r="BX13" s="151" t="s">
         <v>981</v>
       </c>
-      <c r="BY13" s="153" t="s">
+      <c r="BY13" s="151" t="s">
         <v>982</v>
       </c>
-      <c r="BZ13" s="153" t="s">
+      <c r="BZ13" s="151" t="s">
         <v>1183</v>
       </c>
-      <c r="CA13" s="153" t="s">
+      <c r="CA13" s="151" t="s">
         <v>1184</v>
       </c>
-      <c r="CB13" s="153" t="s">
+      <c r="CB13" s="151" t="s">
         <v>1185</v>
       </c>
-      <c r="CC13" s="153" t="s">
+      <c r="CC13" s="151" t="s">
         <v>1186</v>
       </c>
-      <c r="CD13" s="153" t="s">
+      <c r="CD13" s="151" t="s">
         <v>1187</v>
       </c>
-      <c r="CE13" s="186" t="s">
+      <c r="CE13" s="184" t="s">
         <v>1194</v>
       </c>
-      <c r="CF13" s="153" t="s">
+      <c r="CF13" s="151" t="s">
         <v>1196</v>
       </c>
-      <c r="CG13" s="153" t="s">
+      <c r="CG13" s="151" t="s">
         <v>1197</v>
       </c>
-      <c r="CH13" s="153" t="s">
+      <c r="CH13" s="151" t="s">
         <v>1198</v>
       </c>
-      <c r="CI13" s="153" t="s">
+      <c r="CI13" s="151" t="s">
         <v>1199</v>
       </c>
-      <c r="CJ13" s="186" t="s">
+      <c r="CJ13" s="184" t="s">
         <v>1200</v>
       </c>
-      <c r="CK13" s="153" t="s">
+      <c r="CK13" s="151" t="s">
         <v>1201</v>
       </c>
-      <c r="CL13" s="153" t="s">
+      <c r="CL13" s="151" t="s">
         <v>1202</v>
       </c>
-      <c r="CM13" s="153" t="s">
+      <c r="CM13" s="151" t="s">
         <v>1203</v>
       </c>
-      <c r="CN13" s="153" t="s">
+      <c r="CN13" s="151" t="s">
         <v>1204</v>
       </c>
-      <c r="CO13" s="186" t="s">
+      <c r="CO13" s="184" t="s">
         <v>1205</v>
       </c>
-      <c r="CP13" s="186" t="s">
+      <c r="CP13" s="184" t="s">
         <v>1206</v>
       </c>
-      <c r="CQ13" s="186" t="s">
+      <c r="CQ13" s="184" t="s">
         <v>1207</v>
       </c>
-      <c r="CR13" s="153" t="s">
+      <c r="CR13" s="151" t="s">
         <v>1208</v>
       </c>
-      <c r="CS13" s="153" t="s">
+      <c r="CS13" s="151" t="s">
         <v>1209</v>
       </c>
-      <c r="CT13" s="153" t="s">
+      <c r="CT13" s="151" t="s">
         <v>1210</v>
       </c>
-      <c r="CU13" s="153" t="s">
+      <c r="CU13" s="151" t="s">
         <v>1211</v>
       </c>
-      <c r="CV13" s="153" t="s">
+      <c r="CV13" s="151" t="s">
         <v>1212</v>
       </c>
-      <c r="CW13" s="153" t="s">
+      <c r="CW13" s="151" t="s">
         <v>1213</v>
       </c>
-      <c r="CX13" s="153" t="s">
+      <c r="CX13" s="151" t="s">
         <v>1214</v>
       </c>
-      <c r="CY13" s="186" t="s">
+      <c r="CY13" s="184" t="s">
         <v>1215</v>
       </c>
-      <c r="CZ13" s="186" t="s">
+      <c r="CZ13" s="184" t="s">
         <v>1216</v>
       </c>
-      <c r="DA13" s="186" t="s">
+      <c r="DA13" s="184" t="s">
         <v>1217</v>
       </c>
-      <c r="DB13" s="153" t="s">
+      <c r="DB13" s="151" t="s">
         <v>1218</v>
       </c>
-      <c r="DC13" s="153" t="s">
+      <c r="DC13" s="151" t="s">
         <v>1219</v>
       </c>
-      <c r="DD13" s="153" t="s">
+      <c r="DD13" s="151" t="s">
         <v>1220</v>
       </c>
-      <c r="DE13" s="186" t="s">
+      <c r="DE13" s="184" t="s">
         <v>1221</v>
       </c>
-      <c r="DF13" s="153" t="s">
+      <c r="DF13" s="151" t="s">
         <v>1222</v>
       </c>
-      <c r="DG13" s="153" t="s">
+      <c r="DG13" s="151" t="s">
         <v>1223</v>
       </c>
-      <c r="DH13" s="153" t="s">
+      <c r="DH13" s="151" t="s">
         <v>1224</v>
       </c>
-      <c r="DI13" s="153" t="s">
+      <c r="DI13" s="151" t="s">
         <v>1225</v>
       </c>
-      <c r="DJ13" s="153" t="s">
+      <c r="DJ13" s="151" t="s">
         <v>1226</v>
       </c>
-      <c r="DK13" s="153" t="s">
+      <c r="DK13" s="151" t="s">
         <v>1243</v>
       </c>
-      <c r="DL13" s="153" t="s">
+      <c r="DL13" s="151" t="s">
         <v>1227</v>
       </c>
-      <c r="DM13" s="153" t="s">
+      <c r="DM13" s="151" t="s">
         <v>1228</v>
       </c>
-      <c r="DN13" s="186" t="s">
+      <c r="DN13" s="184" t="s">
         <v>1250</v>
       </c>
-      <c r="DO13" s="153" t="s">
+      <c r="DO13" s="151" t="s">
         <v>1230</v>
       </c>
-      <c r="DP13" s="153" t="s">
+      <c r="DP13" s="151" t="s">
         <v>1231</v>
       </c>
-      <c r="DQ13" s="153" t="s">
+      <c r="DQ13" s="151" t="s">
         <v>1232</v>
       </c>
-      <c r="DR13" s="153" t="s">
+      <c r="DR13" s="151" t="s">
         <v>1233</v>
       </c>
-      <c r="DS13" s="153" t="s">
+      <c r="DS13" s="151" t="s">
         <v>1234</v>
       </c>
-      <c r="DT13" s="153" t="s">
+      <c r="DT13" s="151" t="s">
         <v>1235</v>
       </c>
-      <c r="DU13" s="186" t="s">
+      <c r="DU13" s="184" t="s">
         <v>1251</v>
       </c>
-      <c r="DV13" s="153" t="s">
+      <c r="DV13" s="151" t="s">
         <v>1237</v>
       </c>
-      <c r="DW13" s="153" t="s">
+      <c r="DW13" s="151" t="s">
         <v>1238</v>
       </c>
-      <c r="DX13" s="153" t="s">
+      <c r="DX13" s="151" t="s">
         <v>1239</v>
       </c>
-      <c r="DY13" s="153" t="s">
+      <c r="DY13" s="151" t="s">
         <v>1240</v>
       </c>
-      <c r="DZ13" s="153" t="s">
+      <c r="DZ13" s="151" t="s">
         <v>1241</v>
       </c>
       <c r="EA13"/>
@@ -19294,13 +19305,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="186" t="s">
         <v>1129</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
     </row>
     <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="127" t="s">

--- a/13040-WMS-EIW_for_THC.xlsx
+++ b/13040-WMS-EIW_for_THC.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuang4\git\EIW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thuang4\Git\EIW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ACB107-C7AD-4130-BD50-123DE5B8C7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F876B25F-24E9-44B4-B052-7B996C9DF3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="647" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="647" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LookupValTables" sheetId="29" state="hidden" r:id="rId1"/>
+    <sheet name="LookupValTables" sheetId="29" r:id="rId1"/>
     <sheet name="Project Information" sheetId="53" r:id="rId2"/>
     <sheet name="Assets" sheetId="20" r:id="rId3"/>
     <sheet name="OEM Maintenance" sheetId="38" r:id="rId4"/>
@@ -59,7 +59,7 @@
     <author>William Alex</author>
   </authors>
   <commentList>
-    <comment ref="E91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G105" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G110" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E111" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="G111" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G112" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E149" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="G149" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E152" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="G152" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E159" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="G159" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E160" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="G160" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E161" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="G161" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E177" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="G177" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E289" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="G289" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E349" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="G349" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E431" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="G431" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E455" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="G455" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E456" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="G456" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -483,7 +483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="1316">
   <si>
     <t>= IN THIS SHEET NOT AVANTIS</t>
   </si>
@@ -4535,6 +4535,9 @@
   </si>
   <si>
     <t>THC-DIS-V-0634</t>
+  </si>
+  <si>
+    <t>Version: Base Release</t>
   </si>
 </sst>
 </file>
@@ -5801,7 +5804,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -6257,6 +6260,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -11431,8 +11435,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="EntityClassification" displayName="EntityClassification" ref="A8:B154" totalsRowShown="0" headerRowDxfId="231">
-  <autoFilter ref="A8:B154" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="EntityClassification" displayName="EntityClassification" ref="C8:D154" totalsRowShown="0" headerRowDxfId="231">
+  <autoFilter ref="C8:D154" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Entity Classification" dataDxfId="230" dataCellStyle="Normal_Entity Classification1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Abb."/>
@@ -11675,8 +11679,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SiteTable" displayName="SiteTable" ref="F8:G28" totalsRowShown="0" headerRowDxfId="229">
-  <autoFilter ref="F8:G28" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SiteTable" displayName="SiteTable" ref="H8:I28" totalsRowShown="0" headerRowDxfId="229">
+  <autoFilter ref="H8:I28" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Site Codes"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Site Names"/>
@@ -11686,8 +11690,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="EntityType" displayName="EntityType" ref="I8:I22" totalsRowShown="0" headerRowDxfId="228">
-  <autoFilter ref="I8:I22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="EntityType" displayName="EntityType" ref="K8:K22" totalsRowShown="0" headerRowDxfId="228">
+  <autoFilter ref="K8:K22" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Entity Type"/>
   </tableColumns>
@@ -11696,8 +11700,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="EntityCategory" displayName="EntityCategory" ref="D8:D694" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226">
-  <autoFilter ref="D8:D694" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="EntityCategory" displayName="EntityCategory" ref="F8:F694" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226">
+  <autoFilter ref="F8:F694" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Entity Category" dataDxfId="225"/>
   </tableColumns>
@@ -11706,8 +11710,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="110" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="EntityNumberIs" displayName="EntityNumberIs" ref="K8:K14" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223" tableBorderDxfId="222">
-  <autoFilter ref="K8:K14" xr:uid="{00000000-0009-0000-0100-00006E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="110" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="EntityNumberIs" displayName="EntityNumberIs" ref="M8:M14" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223" tableBorderDxfId="222">
+  <autoFilter ref="M8:M14" xr:uid="{00000000-0009-0000-0100-00006E000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Entity Number is" dataDxfId="221"/>
   </tableColumns>
@@ -11716,8 +11720,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="111" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="PhysicalEquipmentIs" displayName="PhysicalEquipmentIs" ref="L8:L14" totalsRowShown="0" headerRowDxfId="220" dataDxfId="219" tableBorderDxfId="218">
-  <autoFilter ref="L8:L14" xr:uid="{00000000-0009-0000-0100-00006F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="111" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="PhysicalEquipmentIs" displayName="PhysicalEquipmentIs" ref="N8:N14" totalsRowShown="0" headerRowDxfId="220" dataDxfId="219" tableBorderDxfId="218">
+  <autoFilter ref="N8:N14" xr:uid="{00000000-0009-0000-0100-00006F000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Physical Asset is" dataDxfId="217"/>
   </tableColumns>
@@ -11726,8 +11730,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="112" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="AssetInformationIs" displayName="AssetInformationIs" ref="M8:M12" totalsRowShown="0" headerRowDxfId="216" dataDxfId="215" tableBorderDxfId="214">
-  <autoFilter ref="M8:M12" xr:uid="{00000000-0009-0000-0100-000070000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="112" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="AssetInformationIs" displayName="AssetInformationIs" ref="O8:O12" totalsRowShown="0" headerRowDxfId="216" dataDxfId="215" tableBorderDxfId="214">
+  <autoFilter ref="O8:O12" xr:uid="{00000000-0009-0000-0100-000070000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Asset information is" dataDxfId="213"/>
   </tableColumns>
@@ -11736,8 +11740,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table2" displayName="Table2" ref="K19:K24" totalsRowShown="0" headerRowDxfId="212" dataDxfId="210" headerRowBorderDxfId="211" tableBorderDxfId="209" totalsRowBorderDxfId="208">
-  <autoFilter ref="K19:K24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table2" displayName="Table2" ref="M19:M24" totalsRowShown="0" headerRowDxfId="212" dataDxfId="210" headerRowBorderDxfId="211" tableBorderDxfId="209" totalsRowBorderDxfId="208">
+  <autoFilter ref="M19:M24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Physical Entity Is " dataDxfId="207"/>
   </tableColumns>
@@ -12046,4458 +12050,4463 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Q699"/>
+  <dimension ref="A1:S699"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.42578125" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="49.28515625" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" customWidth="1"/>
-    <col min="9" max="9" width="47.85546875" customWidth="1"/>
-    <col min="11" max="11" width="51.140625" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="71.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="49.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" customWidth="1"/>
+    <col min="11" max="11" width="47.85546875" customWidth="1"/>
+    <col min="13" max="13" width="51.140625" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C1" s="5"/>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="164" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C2" s="8"/>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E2" s="8"/>
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C3" s="9"/>
-      <c r="D3" s="13" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E3" s="9"/>
+      <c r="F3" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C4" s="11"/>
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E4" s="11"/>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="M8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="N8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="O8" s="37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6"/>
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="M9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="N9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="O9" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="M10" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="N10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="O10" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>32</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="M11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="O11" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>40</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="M12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="N12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="35" t="s">
+      <c r="O12" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>49</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="M13" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="N13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>56</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>57</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>63</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>64</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>69</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>70</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>75</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>76</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>81</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>82</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>86</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>87</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="113" t="s">
+      <c r="M19" s="113" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>92</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>93</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="111" t="s">
+      <c r="M20" s="111" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>97</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>98</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="112" t="s">
+      <c r="M21" s="112" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>103</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>104</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="111" t="s">
+      <c r="M22" s="111" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="3:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>92</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="112" t="s">
+      <c r="M23" s="112" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>97</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>98</v>
       </c>
-      <c r="K24" s="114" t="s">
+      <c r="M24" s="114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>115</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>116</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="K25" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>120</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>121</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="K26" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H27" t="s">
         <v>125</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="K27" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>131</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>132</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="K28" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="K29" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="K30" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="K31" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="K32" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C33" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="K33" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C34" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="1"/>
+      <c r="F34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="K34" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="1"/>
+      <c r="F35" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="1"/>
+      <c r="F40" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C44" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C45" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C46" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C47" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C48" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C53" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C55" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="9"/>
+      <c r="F62" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C65" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C66" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C67" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C68" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C69" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C71" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C74" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C75" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C76" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C77" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C78" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C79" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C80" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C81" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C82" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C83" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C84" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C85" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C86" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C87" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C88" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C89" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C90" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C91" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E91" s="12"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C92" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="9"/>
+      <c r="F92" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C93" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="9"/>
+      <c r="F93" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C94" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="F94" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C95" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C96" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C97" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C98" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B98" s="1"/>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="1"/>
+      <c r="F98" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C99" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C100" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B100" s="1"/>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="1"/>
+      <c r="F100" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C101" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="G101" s="12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C102" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C103" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="F103" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C104" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C105" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="G105" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C106" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="F106" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C107" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C108" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C109" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C110" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="G110" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C111" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="F111" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="G111" s="5" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C112" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="F112" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="G112" s="5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C113" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C114" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C115" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C116" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C117" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="F117" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C118" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="F118" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C119" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C120" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C121" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C122" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C123" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C124" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C125" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C126" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C127" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B127" s="1"/>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="1"/>
+      <c r="F127" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C128" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C129" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B129" s="1"/>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="1"/>
+      <c r="F129" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C130" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C131" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C132" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C133" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C134" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C135" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B135" s="1"/>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="1"/>
+      <c r="F135" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C136" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C137" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C138" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C139" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C140" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C141" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C142" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C143" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C144" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C145" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="F145" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C146" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C147" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C148" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C149" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="G149" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C150" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C151" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C152" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="G152" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C153" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C154" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D155" s="1" t="s">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F155" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D156" s="1" t="s">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F156" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D157" s="1" t="s">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F157" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D158" s="1" t="s">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F158" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D159" s="1" t="s">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F159" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E159" s="5" t="s">
+      <c r="G159" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D160" s="1" t="s">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F160" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="E160" s="5" t="s">
+      <c r="G160" s="5" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D161" s="1" t="s">
+    <row r="161" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F161" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="G161" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D162" s="1" t="s">
+    <row r="162" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F162" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D163" s="1" t="s">
+    <row r="163" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F163" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D164" s="1" t="s">
+    <row r="164" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F164" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D165" s="1" t="s">
+    <row r="165" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F165" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D166" s="1" t="s">
+    <row r="166" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F166" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D167" s="1" t="s">
+    <row r="167" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F167" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D168" s="1" t="s">
+    <row r="168" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F168" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D169" s="1" t="s">
+    <row r="169" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F169" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D170" s="1" t="s">
+    <row r="170" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F170" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D171" s="1" t="s">
+    <row r="171" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F171" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D172" s="1" t="s">
+    <row r="172" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F172" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D173" s="1" t="s">
+    <row r="173" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F173" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D174" s="1" t="s">
+    <row r="174" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F174" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D175" s="1" t="s">
+    <row r="175" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F175" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D176" s="1" t="s">
+    <row r="176" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F176" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D177" s="1" t="s">
+    <row r="177" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F177" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D178" s="1" t="s">
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F178" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D179" s="1" t="s">
+    <row r="179" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F179" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D180" s="1" t="s">
+    <row r="180" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F180" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D181" s="1" t="s">
+    <row r="181" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F181" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D182" s="1" t="s">
+    <row r="182" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F182" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D183" s="1" t="s">
+    <row r="183" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F183" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D184" s="1" t="s">
+    <row r="184" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F184" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D185" s="1" t="s">
+    <row r="185" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F185" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D186" s="1" t="s">
+    <row r="186" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F186" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D187" s="1" t="s">
+    <row r="187" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F187" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D188" s="1" t="s">
+    <row r="188" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F188" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D189" s="1" t="s">
+    <row r="189" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F189" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D190" s="1" t="s">
+    <row r="190" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F190" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D191" s="1" t="s">
+    <row r="191" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F191" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D192" s="1" t="s">
+    <row r="192" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F192" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D193" s="1" t="s">
+    <row r="193" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F193" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D194" s="1" t="s">
+    <row r="194" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F194" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D195" s="1" t="s">
+    <row r="195" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F195" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D196" s="1" t="s">
+    <row r="196" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F196" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D197" s="1" t="s">
+    <row r="197" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F197" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D198" s="1" t="s">
+    <row r="198" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F198" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D199" s="1" t="s">
+    <row r="199" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F199" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D200" s="1" t="s">
+    <row r="200" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F200" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D201" s="1" t="s">
+    <row r="201" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F201" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D202" s="1" t="s">
+    <row r="202" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F202" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D203" s="1" t="s">
+    <row r="203" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F203" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D204" s="1" t="s">
+    <row r="204" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F204" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D205" s="1" t="s">
+    <row r="205" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F205" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D206" s="1" t="s">
+    <row r="206" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F206" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D207" s="1" t="s">
+    <row r="207" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F207" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D208" s="1" t="s">
+    <row r="208" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F208" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D209" s="1" t="s">
+    <row r="209" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F209" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D210" s="1" t="s">
+    <row r="210" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F210" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D211" s="1" t="s">
+    <row r="211" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F211" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D212" s="1" t="s">
+    <row r="212" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F212" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D213" s="1" t="s">
+    <row r="213" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F213" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D214" s="1" t="s">
+    <row r="214" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F214" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D215" s="1" t="s">
+    <row r="215" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F215" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D216" s="1" t="s">
+    <row r="216" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F216" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D217" s="1" t="s">
+    <row r="217" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F217" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D218" s="1" t="s">
+    <row r="218" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F218" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D219" s="1" t="s">
+    <row r="219" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F219" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D220" s="1" t="s">
+    <row r="220" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F220" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D221" s="1" t="s">
+    <row r="221" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F221" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D222" s="1" t="s">
+    <row r="222" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F222" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D223" s="1" t="s">
+    <row r="223" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F223" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D224" s="1" t="s">
+    <row r="224" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F224" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D225" s="1" t="s">
+    <row r="225" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F225" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D226" s="1" t="s">
+    <row r="226" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F226" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D227" s="1" t="s">
+    <row r="227" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F227" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D228" s="1" t="s">
+    <row r="228" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F228" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D229" s="1" t="s">
+    <row r="229" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F229" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D230" s="1" t="s">
+    <row r="230" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F230" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D231" s="1" t="s">
+    <row r="231" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F231" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D232" s="1" t="s">
+    <row r="232" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F232" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D233" s="1" t="s">
+    <row r="233" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F233" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D234" s="1" t="s">
+    <row r="234" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F234" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D235" s="1" t="s">
+    <row r="235" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F235" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D236" s="1" t="s">
+    <row r="236" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F236" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D237" s="1" t="s">
+    <row r="237" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F237" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D238" s="1" t="s">
+    <row r="238" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F238" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D239" s="1" t="s">
+    <row r="239" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F239" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D240" s="1" t="s">
+    <row r="240" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F240" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D241" s="1" t="s">
+    <row r="241" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F241" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D242" s="1" t="s">
+    <row r="242" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F242" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D243" s="1" t="s">
+    <row r="243" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F243" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D244" s="1" t="s">
+    <row r="244" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F244" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D245" s="1" t="s">
+    <row r="245" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F245" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D246" s="1" t="s">
+    <row r="246" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F246" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D247" s="1" t="s">
+    <row r="247" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F247" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D248" s="1" t="s">
+    <row r="248" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F248" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D249" s="1" t="s">
+    <row r="249" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F249" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D250" s="1" t="s">
+    <row r="250" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F250" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D251" s="1" t="s">
+    <row r="251" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F251" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D252" s="1" t="s">
+    <row r="252" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F252" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D253" s="1" t="s">
+    <row r="253" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F253" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D254" s="1" t="s">
+    <row r="254" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F254" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D255" s="1" t="s">
+    <row r="255" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F255" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D256" s="1" t="s">
+    <row r="256" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F256" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D257" s="1" t="s">
+    <row r="257" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F257" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D258" s="1" t="s">
+    <row r="258" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F258" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D259" s="1" t="s">
+    <row r="259" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F259" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D260" s="1" t="s">
+    <row r="260" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F260" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D261" s="1" t="s">
+    <row r="261" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F261" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D262" s="1" t="s">
+    <row r="262" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F262" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D263" s="1" t="s">
+    <row r="263" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F263" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D264" s="1" t="s">
+    <row r="264" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F264" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D265" s="1" t="s">
+    <row r="265" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F265" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D266" s="1" t="s">
+    <row r="266" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F266" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D267" s="1" t="s">
+    <row r="267" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F267" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D268" s="1" t="s">
+    <row r="268" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F268" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D269" s="1" t="s">
+    <row r="269" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F269" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D270" s="1" t="s">
+    <row r="270" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F270" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D271" s="1" t="s">
+    <row r="271" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F271" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D272" s="1" t="s">
+    <row r="272" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F272" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D273" s="1" t="s">
+    <row r="273" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F273" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D274" s="1" t="s">
+    <row r="274" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F274" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D275" s="1" t="s">
+    <row r="275" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F275" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D276" s="1" t="s">
+    <row r="276" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F276" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D277" s="1" t="s">
+    <row r="277" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F277" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D278" s="1" t="s">
+    <row r="278" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F278" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D279" s="1" t="s">
+    <row r="279" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F279" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D280" s="1" t="s">
+    <row r="280" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F280" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D281" s="1" t="s">
+    <row r="281" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F281" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D282" s="1" t="s">
+    <row r="282" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F282" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D283" s="1" t="s">
+    <row r="283" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F283" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D284" s="1" t="s">
+    <row r="284" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F284" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D285" s="1" t="s">
+    <row r="285" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F285" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D286" s="1" t="s">
+    <row r="286" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F286" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D287" s="1" t="s">
+    <row r="287" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F287" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D288" s="1" t="s">
+    <row r="288" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F288" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="289" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D289" s="1" t="s">
+    <row r="289" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F289" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E289" s="5" t="s">
+      <c r="G289" s="5" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="290" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D290" s="1" t="s">
+    <row r="290" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F290" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="291" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D291" s="1" t="s">
+    <row r="291" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F291" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="292" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D292" s="1" t="s">
+    <row r="292" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F292" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="293" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D293" s="1" t="s">
+    <row r="293" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F293" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="294" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D294" s="1" t="s">
+    <row r="294" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F294" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="295" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D295" s="1" t="s">
+    <row r="295" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F295" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="296" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D296" s="1" t="s">
+    <row r="296" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F296" s="1" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="297" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D297" s="1" t="s">
+    <row r="297" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F297" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="298" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D298" s="1" t="s">
+    <row r="298" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F298" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="299" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D299" s="1" t="s">
+    <row r="299" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F299" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="300" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D300" s="1" t="s">
+    <row r="300" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F300" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="301" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D301" s="1" t="s">
+    <row r="301" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F301" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="302" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D302" s="1" t="s">
+    <row r="302" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F302" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="303" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D303" s="1" t="s">
+    <row r="303" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F303" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="304" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D304" s="1" t="s">
+    <row r="304" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F304" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D305" s="1" t="s">
+    <row r="305" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F305" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D306" s="1" t="s">
+    <row r="306" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F306" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D307" s="1" t="s">
+    <row r="307" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F307" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D308" s="1" t="s">
+    <row r="308" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F308" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D309" s="1" t="s">
+    <row r="309" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F309" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D310" s="1" t="s">
+    <row r="310" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F310" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D311" s="1" t="s">
+    <row r="311" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F311" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D312" s="1" t="s">
+    <row r="312" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F312" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D313" s="1" t="s">
+    <row r="313" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F313" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D314" s="1" t="s">
+    <row r="314" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F314" s="1" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D315" s="1" t="s">
+    <row r="315" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F315" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D316" s="1" t="s">
+    <row r="316" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F316" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D317" s="1" t="s">
+    <row r="317" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F317" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D318" s="1" t="s">
+    <row r="318" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F318" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D319" s="1" t="s">
+    <row r="319" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F319" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D320" s="1" t="s">
+    <row r="320" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F320" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D321" s="1" t="s">
+    <row r="321" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F321" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D322" s="1" t="s">
+    <row r="322" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F322" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D323" s="1" t="s">
+    <row r="323" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F323" s="1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D324" s="1" t="s">
+    <row r="324" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F324" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D325" s="1" t="s">
+    <row r="325" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F325" s="1" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D326" s="1" t="s">
+    <row r="326" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F326" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D327" s="1" t="s">
+    <row r="327" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F327" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D328" s="1" t="s">
+    <row r="328" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F328" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D329" s="1" t="s">
+    <row r="329" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F329" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D330" s="1" t="s">
+    <row r="330" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F330" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D331" s="1" t="s">
+    <row r="331" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F331" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D332" s="1" t="s">
+    <row r="332" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F332" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D333" s="1" t="s">
+    <row r="333" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F333" s="1" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D334" s="1" t="s">
+    <row r="334" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F334" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D335" s="1" t="s">
+    <row r="335" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F335" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D336" s="1" t="s">
+    <row r="336" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F336" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="337" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D337" s="1" t="s">
+    <row r="337" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F337" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="338" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D338" s="1" t="s">
+    <row r="338" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F338" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="339" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D339" s="1" t="s">
+    <row r="339" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F339" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="340" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D340" s="1" t="s">
+    <row r="340" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F340" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="341" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D341" s="1" t="s">
+    <row r="341" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F341" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="342" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D342" s="1" t="s">
+    <row r="342" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F342" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="343" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D343" s="1" t="s">
+    <row r="343" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F343" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="344" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D344" s="1" t="s">
+    <row r="344" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F344" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="345" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D345" s="1" t="s">
+    <row r="345" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F345" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="346" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D346" s="1" t="s">
+    <row r="346" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F346" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="347" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D347" s="1" t="s">
+    <row r="347" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F347" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="348" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D348" s="1" t="s">
+    <row r="348" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F348" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="349" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D349" s="1" t="s">
+    <row r="349" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F349" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E349" s="5"/>
-    </row>
-    <row r="350" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D350" s="1" t="s">
+      <c r="G349" s="5"/>
+    </row>
+    <row r="350" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F350" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="351" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D351" s="1" t="s">
+    <row r="351" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F351" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="352" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D352" s="1" t="s">
+    <row r="352" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F352" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D353" s="1" t="s">
+    <row r="353" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F353" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="354" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D354" s="1" t="s">
+    <row r="354" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F354" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="355" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D355" s="1" t="s">
+    <row r="355" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F355" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="356" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D356" s="1" t="s">
+    <row r="356" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F356" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="357" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D357" s="1" t="s">
+    <row r="357" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F357" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="358" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D358" s="1" t="s">
+    <row r="358" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F358" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="359" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D359" s="1" t="s">
+    <row r="359" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F359" s="1" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="360" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D360" s="1" t="s">
+    <row r="360" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F360" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="361" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D361" s="1" t="s">
+    <row r="361" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F361" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="362" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D362" s="1" t="s">
+    <row r="362" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F362" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="E362" s="1"/>
-    </row>
-    <row r="363" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D363" s="1" t="s">
+      <c r="G362" s="1"/>
+    </row>
+    <row r="363" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F363" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="364" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D364" s="1" t="s">
+    <row r="364" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F364" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="365" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D365" s="1" t="s">
+    <row r="365" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F365" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="366" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D366" s="1" t="s">
+    <row r="366" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F366" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="367" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D367" s="1" t="s">
+    <row r="367" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F367" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="368" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D368" s="1" t="s">
+    <row r="368" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F368" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D369" s="1" t="s">
+    <row r="369" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F369" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D370" s="1" t="s">
+    <row r="370" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F370" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D371" s="1" t="s">
+    <row r="371" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F371" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D372" s="1" t="s">
+    <row r="372" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F372" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D373" s="1" t="s">
+    <row r="373" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F373" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D374" s="1" t="s">
+    <row r="374" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F374" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D375" s="1" t="s">
+    <row r="375" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F375" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D376" s="1" t="s">
+    <row r="376" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F376" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D377" s="1" t="s">
+    <row r="377" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F377" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D378" s="1" t="s">
+    <row r="378" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F378" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D379" s="1" t="s">
+    <row r="379" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F379" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D380" s="1" t="s">
+    <row r="380" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F380" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D381" s="1" t="s">
+    <row r="381" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F381" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D382" s="1" t="s">
+    <row r="382" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F382" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D383" s="1" t="s">
+    <row r="383" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F383" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D384" s="1" t="s">
+    <row r="384" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F384" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D385" s="1" t="s">
+    <row r="385" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F385" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D386" s="1" t="s">
+    <row r="386" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F386" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D387" s="1" t="s">
+    <row r="387" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F387" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D388" s="1" t="s">
+    <row r="388" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F388" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D389" s="1" t="s">
+    <row r="389" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F389" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D390" s="1" t="s">
+    <row r="390" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F390" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D391" s="1" t="s">
+    <row r="391" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F391" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D392" s="1" t="s">
+    <row r="392" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F392" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D393" s="1" t="s">
+    <row r="393" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F393" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D394" s="1" t="s">
+    <row r="394" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F394" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D395" s="1" t="s">
+    <row r="395" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F395" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D396" s="1" t="s">
+    <row r="396" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F396" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D397" s="1" t="s">
+    <row r="397" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F397" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D398" s="1" t="s">
+    <row r="398" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F398" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="399" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D399" s="1" t="s">
+    <row r="399" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F399" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D400" s="1" t="s">
+    <row r="400" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F400" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="401" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D401" s="1" t="s">
+    <row r="401" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F401" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="402" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D402" s="1" t="s">
+    <row r="402" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F402" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="403" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D403" s="1" t="s">
+    <row r="403" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F403" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="404" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D404" s="1" t="s">
+    <row r="404" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F404" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="405" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D405" s="1" t="s">
+    <row r="405" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F405" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="406" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D406" s="1" t="s">
+    <row r="406" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F406" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="407" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D407" s="1" t="s">
+    <row r="407" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F407" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="408" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D408" s="1" t="s">
+    <row r="408" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F408" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="409" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D409" s="1" t="s">
+    <row r="409" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F409" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="410" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D410" s="1" t="s">
+    <row r="410" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F410" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="411" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D411" s="1" t="s">
+    <row r="411" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F411" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="412" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D412" s="1" t="s">
+    <row r="412" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F412" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="413" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D413" s="1" t="s">
+    <row r="413" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F413" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="414" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D414" s="1" t="s">
+    <row r="414" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F414" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="415" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D415" s="1" t="s">
+    <row r="415" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F415" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="416" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D416" s="1" t="s">
+    <row r="416" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F416" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="417" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D417" s="1" t="s">
+    <row r="417" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F417" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="418" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D418" s="1" t="s">
+    <row r="418" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F418" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="419" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D419" s="1" t="s">
+    <row r="419" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F419" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="420" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D420" s="1" t="s">
+    <row r="420" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F420" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="421" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D421" s="1" t="s">
+    <row r="421" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F421" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="422" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D422" s="1" t="s">
+    <row r="422" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F422" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="423" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D423" s="1" t="s">
+    <row r="423" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F423" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="424" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D424" s="1" t="s">
+    <row r="424" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F424" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="425" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D425" s="1" t="s">
+    <row r="425" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F425" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="426" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D426" s="1" t="s">
+    <row r="426" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F426" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="427" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D427" s="1" t="s">
+    <row r="427" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F427" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="428" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D428" s="1" t="s">
+    <row r="428" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F428" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="429" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D429" s="1" t="s">
+    <row r="429" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F429" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="430" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D430" s="1" t="s">
+    <row r="430" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F430" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="431" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D431" s="1" t="s">
+    <row r="431" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F431" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="E431" s="5" t="s">
+      <c r="G431" s="5" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="432" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D432" s="1" t="s">
+    <row r="432" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F432" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="433" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D433" s="1" t="s">
+    <row r="433" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F433" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D434" s="1" t="s">
+    <row r="434" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F434" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="435" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D435" s="1" t="s">
+    <row r="435" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F435" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="436" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D436" s="1" t="s">
+    <row r="436" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F436" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="437" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D437" s="1" t="s">
+    <row r="437" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F437" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="438" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D438" s="1" t="s">
+    <row r="438" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F438" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="439" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D439" s="1" t="s">
+    <row r="439" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F439" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="440" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D440" s="1" t="s">
+    <row r="440" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F440" s="1" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="441" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D441" s="1" t="s">
+    <row r="441" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F441" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="442" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D442" s="1" t="s">
+    <row r="442" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F442" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="443" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D443" s="1" t="s">
+    <row r="443" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F443" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="444" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D444" s="1" t="s">
+    <row r="444" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F444" s="1" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="445" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D445" s="1" t="s">
+    <row r="445" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F445" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="446" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D446" s="1" t="s">
+    <row r="446" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F446" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="447" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D447" s="1" t="s">
+    <row r="447" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F447" s="1" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="448" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D448" s="1" t="s">
+    <row r="448" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F448" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="449" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D449" s="1" t="s">
+    <row r="449" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F449" s="1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="450" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D450" s="1" t="s">
+    <row r="450" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F450" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="451" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D451" s="1" t="s">
+    <row r="451" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F451" s="1" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="452" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D452" s="1" t="s">
+    <row r="452" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F452" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="453" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D453" s="1" t="s">
+    <row r="453" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F453" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="454" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D454" s="1" t="s">
+    <row r="454" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F454" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="455" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D455" s="1" t="s">
+    <row r="455" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F455" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E455" s="5" t="s">
+      <c r="G455" s="5" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="456" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D456" s="1" t="s">
+    <row r="456" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F456" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="E456" s="5" t="s">
+      <c r="G456" s="5" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="457" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D457" s="1" t="s">
+    <row r="457" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F457" s="1" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="458" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D458" s="1" t="s">
+    <row r="458" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F458" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="459" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D459" s="1" t="s">
+    <row r="459" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F459" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="460" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D460" s="1" t="s">
+    <row r="460" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F460" s="1" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="461" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D461" s="1" t="s">
+    <row r="461" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F461" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="462" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D462" s="1" t="s">
+    <row r="462" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F462" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="463" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D463" s="1" t="s">
+    <row r="463" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F463" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="464" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D464" s="1" t="s">
+    <row r="464" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F464" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D465" s="1" t="s">
+    <row r="465" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F465" s="1" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D466" s="1" t="s">
+    <row r="466" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F466" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D467" s="1" t="s">
+    <row r="467" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F467" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D468" s="1" t="s">
+    <row r="468" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F468" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D469" s="1" t="s">
+    <row r="469" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F469" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D470" s="1" t="s">
+    <row r="470" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F470" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D471" s="1" t="s">
+    <row r="471" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F471" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="472" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D472" s="1" t="s">
+    <row r="472" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F472" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D473" s="1" t="s">
+    <row r="473" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F473" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D474" s="1" t="s">
+    <row r="474" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F474" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D475" s="1" t="s">
+    <row r="475" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F475" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D476" s="1" t="s">
+    <row r="476" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F476" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D477" s="1" t="s">
+    <row r="477" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F477" s="1" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D478" s="1" t="s">
+    <row r="478" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F478" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="479" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D479" s="1" t="s">
+    <row r="479" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F479" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D480" s="1" t="s">
+    <row r="480" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F480" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D481" s="1" t="s">
+    <row r="481" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F481" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D482" s="1" t="s">
+    <row r="482" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F482" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D483" s="1" t="s">
+    <row r="483" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F483" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D484" s="1" t="s">
+    <row r="484" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F484" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D485" s="1" t="s">
+    <row r="485" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F485" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D486" s="1" t="s">
+    <row r="486" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F486" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D487" s="1" t="s">
+    <row r="487" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F487" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D488" s="1" t="s">
+    <row r="488" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F488" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D489" s="1" t="s">
+    <row r="489" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F489" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D490" s="1" t="s">
+    <row r="490" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F490" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D491" s="1" t="s">
+    <row r="491" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F491" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="492" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D492" s="1" t="s">
+    <row r="492" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F492" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D493" s="1" t="s">
+    <row r="493" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F493" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D494" s="1" t="s">
+    <row r="494" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F494" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D495" s="1" t="s">
+    <row r="495" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F495" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="496" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D496" s="1" t="s">
+    <row r="496" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F496" s="1" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="497" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D497" s="1" t="s">
+    <row r="497" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F497" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E497" s="11" t="s">
+      <c r="G497" s="11" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="498" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D498" s="1" t="s">
+    <row r="498" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F498" s="1" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="499" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D499" s="1" t="s">
+    <row r="499" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F499" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="500" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D500" s="1" t="s">
+    <row r="500" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F500" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="501" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D501" s="1" t="s">
+    <row r="501" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F501" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="502" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D502" s="1" t="s">
+    <row r="502" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F502" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="503" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D503" s="1" t="s">
+    <row r="503" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F503" s="1" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="504" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D504" s="1" t="s">
+    <row r="504" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F504" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="505" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D505" s="1" t="s">
+    <row r="505" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F505" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="506" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D506" s="1" t="s">
+    <row r="506" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F506" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="507" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D507" s="1" t="s">
+    <row r="507" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F507" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="508" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D508" s="1" t="s">
+    <row r="508" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F508" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="509" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D509" s="1" t="s">
+    <row r="509" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F509" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="510" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D510" s="1" t="s">
+    <row r="510" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F510" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="511" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D511" s="1" t="s">
+    <row r="511" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F511" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="512" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D512" s="1" t="s">
+    <row r="512" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F512" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D513" s="1" t="s">
+    <row r="513" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F513" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D514" s="1" t="s">
+    <row r="514" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F514" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D515" s="1" t="s">
+    <row r="515" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F515" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D516" s="1" t="s">
+    <row r="516" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F516" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D517" s="1" t="s">
+    <row r="517" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F517" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D518" s="1" t="s">
+    <row r="518" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F518" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D519" s="1" t="s">
+    <row r="519" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F519" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D520" s="1" t="s">
+    <row r="520" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F520" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D521" s="1" t="s">
+    <row r="521" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F521" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D522" s="1" t="s">
+    <row r="522" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F522" s="1" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D523" s="1" t="s">
+    <row r="523" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F523" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D524" s="1" t="s">
+    <row r="524" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F524" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D525" s="1" t="s">
+    <row r="525" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F525" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D526" s="1" t="s">
+    <row r="526" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F526" s="1" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D527" s="1" t="s">
+    <row r="527" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F527" s="1" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D528" s="1" t="s">
+    <row r="528" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F528" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D529" s="1" t="s">
+    <row r="529" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F529" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D530" s="1" t="s">
+    <row r="530" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F530" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D531" s="1" t="s">
+    <row r="531" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F531" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D532" s="1" t="s">
+    <row r="532" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F532" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D533" s="1" t="s">
+    <row r="533" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F533" s="1" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D534" s="1" t="s">
+    <row r="534" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F534" s="1" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D535" s="1" t="s">
+    <row r="535" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F535" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D536" s="1" t="s">
+    <row r="536" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F536" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D537" s="1" t="s">
+    <row r="537" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F537" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D538" s="1" t="s">
+    <row r="538" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F538" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D539" s="1" t="s">
+    <row r="539" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F539" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D540" s="1" t="s">
+    <row r="540" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F540" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D541" s="1" t="s">
+    <row r="541" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F541" s="1" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D542" s="1" t="s">
+    <row r="542" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F542" s="1" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D543" s="1" t="s">
+    <row r="543" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F543" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D544" s="1" t="s">
+    <row r="544" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F544" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D545" s="1" t="s">
+    <row r="545" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F545" s="1" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D546" s="1" t="s">
+    <row r="546" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F546" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D547" s="1" t="s">
+    <row r="547" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F547" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D548" s="1" t="s">
+    <row r="548" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F548" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D549" s="1" t="s">
+    <row r="549" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F549" s="1" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D550" s="1" t="s">
+    <row r="550" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F550" s="1" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D551" s="1" t="s">
+    <row r="551" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F551" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D552" s="1" t="s">
+    <row r="552" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F552" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D553" s="1" t="s">
+    <row r="553" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F553" s="1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D554" s="1" t="s">
+    <row r="554" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F554" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D555" s="1" t="s">
+    <row r="555" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F555" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D556" s="1" t="s">
+    <row r="556" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F556" s="1" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D557" s="1" t="s">
+    <row r="557" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F557" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D558" s="1" t="s">
+    <row r="558" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F558" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D559" s="1" t="s">
+    <row r="559" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F559" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D560" s="1" t="s">
+    <row r="560" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F560" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D561" s="1" t="s">
+    <row r="561" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F561" s="1" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D562" s="1" t="s">
+    <row r="562" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F562" s="1" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D563" s="1" t="s">
+    <row r="563" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F563" s="1" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D564" s="1" t="s">
+    <row r="564" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F564" s="1" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D565" s="1" t="s">
+    <row r="565" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F565" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D566" s="1" t="s">
+    <row r="566" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F566" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D567" s="1" t="s">
+    <row r="567" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F567" s="1" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D568" s="1" t="s">
+    <row r="568" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F568" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D569" s="1" t="s">
+    <row r="569" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F569" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D570" s="1" t="s">
+    <row r="570" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F570" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D571" s="1" t="s">
+    <row r="571" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F571" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D572" s="1" t="s">
+    <row r="572" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F572" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D573" s="1" t="s">
+    <row r="573" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F573" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D574" s="1" t="s">
+    <row r="574" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F574" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D575" s="1" t="s">
+    <row r="575" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F575" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D576" s="1" t="s">
+    <row r="576" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F576" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D577" t="s">
+    <row r="577" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F577" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D578" t="s">
+    <row r="578" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F578" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D579" s="1" t="s">
+    <row r="579" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F579" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D580" s="1" t="s">
+    <row r="580" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F580" s="1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D581" s="1" t="s">
+    <row r="581" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F581" s="1" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D582" s="1" t="s">
+    <row r="582" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F582" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D583" s="1" t="s">
+    <row r="583" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F583" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D584" s="1" t="s">
+    <row r="584" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F584" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D585" s="1" t="s">
+    <row r="585" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F585" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D586" s="1" t="s">
+    <row r="586" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F586" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D587" s="1" t="s">
+    <row r="587" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F587" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D588" s="1" t="s">
+    <row r="588" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F588" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D589" s="1" t="s">
+    <row r="589" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F589" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D590" s="1" t="s">
+    <row r="590" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F590" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D591" s="1" t="s">
+    <row r="591" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F591" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D592" s="1" t="s">
+    <row r="592" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F592" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D593" s="1" t="s">
+    <row r="593" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F593" s="1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D594" s="1" t="s">
+    <row r="594" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F594" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D595" s="1" t="s">
+    <row r="595" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F595" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D596" s="1" t="s">
+    <row r="596" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F596" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D597" s="1" t="s">
+    <row r="597" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F597" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D598" s="1" t="s">
+    <row r="598" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F598" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D599" s="1" t="s">
+    <row r="599" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F599" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D600" s="1" t="s">
+    <row r="600" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F600" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D601" s="1" t="s">
+    <row r="601" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F601" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D602" s="1" t="s">
+    <row r="602" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F602" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="603" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D603" s="1" t="s">
+    <row r="603" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F603" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="604" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D604" s="1" t="s">
+    <row r="604" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F604" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="605" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D605" s="1" t="s">
+    <row r="605" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F605" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="606" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D606" s="1" t="s">
+    <row r="606" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F606" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="607" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D607" s="1" t="s">
+    <row r="607" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F607" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="608" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D608" s="1" t="s">
+    <row r="608" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F608" s="1" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="609" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D609" s="1" t="s">
+    <row r="609" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F609" s="1" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="610" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D610" s="1" t="s">
+    <row r="610" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F610" s="1" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="611" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D611" s="1" t="s">
+    <row r="611" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F611" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="612" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D612" s="1" t="s">
+    <row r="612" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F612" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="613" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D613" s="1" t="s">
+    <row r="613" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F613" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="614" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D614" s="1" t="s">
+    <row r="614" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F614" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="615" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D615" s="1" t="s">
+    <row r="615" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F615" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="616" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D616" s="1" t="s">
+    <row r="616" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F616" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="617" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D617" t="s">
+    <row r="617" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F617" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="618" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D618" t="s">
+    <row r="618" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F618" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="619" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D619" t="s">
+    <row r="619" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F619" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="620" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D620" t="s">
+    <row r="620" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F620" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="621" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D621" s="1" t="s">
+    <row r="621" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F621" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E621" s="9"/>
-    </row>
-    <row r="622" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D622" s="1" t="s">
+      <c r="G621" s="9"/>
+    </row>
+    <row r="622" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F622" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="E622" s="9"/>
-    </row>
-    <row r="623" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D623" s="1" t="s">
+      <c r="G622" s="9"/>
+    </row>
+    <row r="623" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F623" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="624" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D624" s="1" t="s">
+    <row r="624" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F624" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="625" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D625" s="1" t="s">
+    <row r="625" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F625" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="626" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D626" s="1" t="s">
+    <row r="626" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F626" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="627" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D627" s="1" t="s">
+    <row r="627" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F627" s="1" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="628" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D628" s="1" t="s">
+    <row r="628" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F628" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="629" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D629" s="1" t="s">
+    <row r="629" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F629" s="1" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="630" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D630" s="1" t="s">
+    <row r="630" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F630" s="1" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="631" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D631" s="1" t="s">
+    <row r="631" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F631" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="632" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D632" s="1" t="s">
+    <row r="632" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F632" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="633" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D633" s="1" t="s">
+    <row r="633" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F633" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="634" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D634" s="1" t="s">
+    <row r="634" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F634" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="635" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D635" s="1" t="s">
+    <row r="635" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F635" s="1" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="636" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D636" s="1" t="s">
+    <row r="636" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F636" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="637" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D637" s="1" t="s">
+    <row r="637" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F637" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="638" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D638" s="1" t="s">
+    <row r="638" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F638" s="1" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="639" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D639" s="1" t="s">
+    <row r="639" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F639" s="1" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="640" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D640" s="1" t="s">
+    <row r="640" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F640" s="1" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="641" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D641" s="1" t="s">
+    <row r="641" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F641" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="642" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D642" s="1" t="s">
+    <row r="642" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F642" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="643" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D643" s="1" t="s">
+    <row r="643" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F643" s="1" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="644" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D644" s="1" t="s">
+    <row r="644" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F644" s="1" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="645" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D645" s="1" t="s">
+    <row r="645" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F645" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="646" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D646" s="1" t="s">
+    <row r="646" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F646" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="647" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D647" s="1" t="s">
+    <row r="647" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F647" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="648" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D648" s="1" t="s">
+    <row r="648" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F648" s="1" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="649" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D649" s="1" t="s">
+    <row r="649" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F649" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="650" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D650" s="1" t="s">
+    <row r="650" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F650" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="651" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D651" s="1" t="s">
+    <row r="651" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F651" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="E651" s="11" t="s">
+      <c r="G651" s="11" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="652" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D652" s="1" t="s">
+    <row r="652" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F652" s="1" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="653" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D653" s="1" t="s">
+    <row r="653" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F653" s="1" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="654" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D654" s="1" t="s">
+    <row r="654" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F654" s="1" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="655" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D655" s="1" t="s">
+    <row r="655" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F655" s="1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="656" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D656" s="1" t="s">
+    <row r="656" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F656" s="1" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="657" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D657" s="1" t="s">
+    <row r="657" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F657" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="658" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D658" s="1" t="s">
+    <row r="658" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F658" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="659" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D659" s="1" t="s">
+    <row r="659" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F659" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="660" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D660" s="1" t="s">
+    <row r="660" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F660" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="661" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D661" s="1" t="s">
+    <row r="661" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F661" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="662" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D662" s="1" t="s">
+    <row r="662" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F662" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="663" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D663" s="1" t="s">
+    <row r="663" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F663" s="1" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="664" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D664" s="1" t="s">
+    <row r="664" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F664" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="665" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D665" s="1" t="s">
+    <row r="665" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F665" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="666" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D666" s="1" t="s">
+    <row r="666" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F666" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="667" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D667" s="1" t="s">
+    <row r="667" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F667" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="668" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D668" s="1" t="s">
+    <row r="668" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F668" s="1" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="669" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D669" s="1" t="s">
+    <row r="669" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F669" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="E669" s="11" t="s">
+      <c r="G669" s="11" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="670" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D670" s="1" t="s">
+    <row r="670" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F670" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E670" s="11" t="s">
+      <c r="G670" s="11" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="671" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D671" s="1" t="s">
+    <row r="671" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F671" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="672" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D672" s="1" t="s">
+    <row r="672" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F672" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="673" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D673" s="1" t="s">
+    <row r="673" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F673" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="674" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D674" s="1" t="s">
+    <row r="674" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F674" s="1" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="675" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D675" s="1" t="s">
+    <row r="675" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F675" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="676" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D676" s="1" t="s">
+    <row r="676" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F676" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="677" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D677" s="1" t="s">
+    <row r="677" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F677" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="678" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D678" s="1" t="s">
+    <row r="678" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F678" s="1" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="679" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D679" s="1" t="s">
+    <row r="679" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F679" s="1" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="680" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D680" s="1" t="s">
+    <row r="680" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F680" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="681" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D681" s="1" t="s">
+    <row r="681" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F681" s="1" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="682" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D682" s="1" t="s">
+    <row r="682" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F682" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="683" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D683" s="1" t="s">
+    <row r="683" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F683" s="1" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="684" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D684" s="1" t="s">
+    <row r="684" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F684" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="685" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D685" s="1" t="s">
+    <row r="685" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F685" s="1" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="686" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D686" s="1" t="s">
+    <row r="686" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F686" s="1" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="687" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D687" s="1" t="s">
+    <row r="687" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F687" s="1" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="688" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D688" s="1" t="s">
+    <row r="688" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F688" s="1" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="689" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D689" s="1" t="s">
+    <row r="689" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F689" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="690" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D690" s="1" t="s">
+    <row r="690" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F690" s="1" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="691" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D691" s="1" t="s">
+    <row r="691" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F691" s="1" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="692" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D692" s="1" t="s">
+    <row r="692" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F692" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="693" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D693" s="1" t="s">
+    <row r="693" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F693" s="1" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="694" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D694" s="1" t="s">
+    <row r="694" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F694" s="1" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="697" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D697" s="17" t="s">
+    <row r="697" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F697" s="17" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="698" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D698" s="15" t="s">
+    <row r="698" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F698" s="15" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="699" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D699" s="16" t="s">
+    <row r="699" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F699" s="16" t="s">
         <v>915</v>
       </c>
     </row>
@@ -16522,8 +16531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
